--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIM-EL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F93DD2-39E7-486E-A2F9-1D321FBC81E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E894D97D-A560-4CD2-B44F-66F6B49E7CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4125" yWindow="-21720" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2640" yWindow="-18345" windowWidth="32505" windowHeight="16725" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -218,9 +218,6 @@
     <t>000_Units</t>
   </si>
   <si>
-    <t>MEuro05</t>
-  </si>
-  <si>
     <t>~TFM_MIG</t>
   </si>
   <si>
@@ -3342,6 +3339,9 @@
   </si>
   <si>
     <t>Pdef-30</t>
+  </si>
+  <si>
+    <t>MZAR2022</t>
   </si>
 </sst>
 </file>
@@ -4080,7 +4080,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>the start year of the model (2021);</a:t>
+            <a:t>the start year of the model (2017);</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5608,9 +5608,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5648,9 +5648,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5683,26 +5683,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5735,26 +5718,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5973,16 +5939,16 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6000,8 +5966,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6021,7 +5987,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -6031,7 +5997,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -6047,10 +6013,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="21" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>1091</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -6301,7 +6267,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6312,7 +6278,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
@@ -6439,7 +6405,7 @@
   <dimension ref="B3:J1016"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:J1016"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6482,7 +6448,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="9">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -6495,7 +6461,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>34</v>
@@ -6506,7 +6472,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G10" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>34</v>
@@ -6517,7 +6483,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G11" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>34</v>
@@ -6528,7 +6494,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G12" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>34</v>
@@ -6540,7 +6506,7 @@
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F13" s="13"/>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -6552,7 +6518,7 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F14" s="13"/>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
         <v>34</v>
@@ -6564,7 +6530,7 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F15" s="13"/>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
         <v>34</v>
@@ -6575,7 +6541,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
         <v>34</v>
@@ -6586,7 +6552,7 @@
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
         <v>34</v>
@@ -6597,7 +6563,7 @@
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
         <v>34</v>
@@ -6608,7 +6574,7 @@
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s">
         <v>34</v>
@@ -6619,7 +6585,7 @@
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
         <v>34</v>
@@ -6630,7 +6596,7 @@
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
         <v>34</v>
@@ -6641,7 +6607,7 @@
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s">
         <v>34</v>
@@ -6652,7 +6618,7 @@
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s">
         <v>34</v>
@@ -6663,7 +6629,7 @@
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
         <v>34</v>
@@ -6674,7 +6640,7 @@
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I25" t="s">
         <v>34</v>
@@ -6685,7 +6651,7 @@
     </row>
     <row r="26" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I26" t="s">
         <v>34</v>
@@ -6696,7 +6662,7 @@
     </row>
     <row r="27" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I27" t="s">
         <v>34</v>
@@ -6707,7 +6673,7 @@
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
         <v>34</v>
@@ -6718,7 +6684,7 @@
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
         <v>34</v>
@@ -6729,7 +6695,7 @@
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I30" t="s">
         <v>34</v>
@@ -6740,7 +6706,7 @@
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I31" t="s">
         <v>34</v>
@@ -6751,7 +6717,7 @@
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" t="s">
         <v>34</v>
@@ -6762,7 +6728,7 @@
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" t="s">
         <v>34</v>
@@ -6773,7 +6739,7 @@
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" t="s">
         <v>34</v>
@@ -6784,7 +6750,7 @@
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G35" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>34</v>
@@ -6795,7 +6761,7 @@
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G36" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>34</v>
@@ -6806,7 +6772,7 @@
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G37" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>34</v>
@@ -6817,7 +6783,7 @@
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G38" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>34</v>
@@ -6828,7 +6794,7 @@
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G39" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>34</v>
@@ -6839,7 +6805,7 @@
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G40" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>34</v>
@@ -6850,7 +6816,7 @@
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G41" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>34</v>
@@ -6861,7 +6827,7 @@
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G42" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>34</v>
@@ -6872,7 +6838,7 @@
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G43" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>34</v>
@@ -6883,7 +6849,7 @@
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G44" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>34</v>
@@ -6894,7 +6860,7 @@
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G45" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>34</v>
@@ -6905,7 +6871,7 @@
     </row>
     <row r="46" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G46" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>34</v>
@@ -6916,7 +6882,7 @@
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G47" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>34</v>
@@ -6927,7 +6893,7 @@
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G48" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>34</v>
@@ -6938,7 +6904,7 @@
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G49" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>34</v>
@@ -6949,7 +6915,7 @@
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G50" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>34</v>
@@ -6960,7 +6926,7 @@
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G51" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>34</v>
@@ -6971,7 +6937,7 @@
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G52" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>34</v>
@@ -6982,7 +6948,7 @@
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G53" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>34</v>
@@ -6993,7 +6959,7 @@
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G54" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>34</v>
@@ -7004,7 +6970,7 @@
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G55" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>34</v>
@@ -7015,7 +6981,7 @@
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G56" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>34</v>
@@ -7026,7 +6992,7 @@
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G57" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>34</v>
@@ -7037,7 +7003,7 @@
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G58" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>34</v>
@@ -7048,7 +7014,7 @@
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G59" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>34</v>
@@ -7059,7 +7025,7 @@
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G60" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>34</v>
@@ -7070,7 +7036,7 @@
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G61" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>34</v>
@@ -7081,7 +7047,7 @@
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G62" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>34</v>
@@ -7092,7 +7058,7 @@
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G63" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>34</v>
@@ -7103,7 +7069,7 @@
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G64" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>34</v>
@@ -7114,7 +7080,7 @@
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G65" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>34</v>
@@ -7125,7 +7091,7 @@
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G66" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>34</v>
@@ -7136,7 +7102,7 @@
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G67" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>34</v>
@@ -7147,7 +7113,7 @@
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G68" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>34</v>
@@ -7158,7 +7124,7 @@
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G69" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>34</v>
@@ -7169,7 +7135,7 @@
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G70" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>34</v>
@@ -7180,7 +7146,7 @@
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G71" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>34</v>
@@ -7191,7 +7157,7 @@
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G72" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>34</v>
@@ -7202,7 +7168,7 @@
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G73" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>34</v>
@@ -7213,7 +7179,7 @@
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G74" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>34</v>
@@ -7224,7 +7190,7 @@
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G75" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>34</v>
@@ -7235,7 +7201,7 @@
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G76" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>34</v>
@@ -7246,7 +7212,7 @@
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G77" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>34</v>
@@ -7257,7 +7223,7 @@
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G78" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>34</v>
@@ -7268,7 +7234,7 @@
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G79" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>34</v>
@@ -7279,7 +7245,7 @@
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G80" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>34</v>
@@ -7290,7 +7256,7 @@
     </row>
     <row r="81" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G81" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>34</v>
@@ -7301,7 +7267,7 @@
     </row>
     <row r="82" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G82" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>34</v>
@@ -7312,7 +7278,7 @@
     </row>
     <row r="83" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G83" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>34</v>
@@ -7323,7 +7289,7 @@
     </row>
     <row r="84" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G84" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>34</v>
@@ -7334,7 +7300,7 @@
     </row>
     <row r="85" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G85" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>34</v>
@@ -7345,7 +7311,7 @@
     </row>
     <row r="86" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G86" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>34</v>
@@ -7356,7 +7322,7 @@
     </row>
     <row r="87" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G87" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>34</v>
@@ -7367,7 +7333,7 @@
     </row>
     <row r="88" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G88" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>34</v>
@@ -7378,7 +7344,7 @@
     </row>
     <row r="89" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G89" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>34</v>
@@ -7389,7 +7355,7 @@
     </row>
     <row r="90" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G90" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>34</v>
@@ -7400,7 +7366,7 @@
     </row>
     <row r="91" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G91" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>34</v>
@@ -7411,7 +7377,7 @@
     </row>
     <row r="92" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G92" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>34</v>
@@ -7422,7 +7388,7 @@
     </row>
     <row r="93" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G93" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>34</v>
@@ -7433,7 +7399,7 @@
     </row>
     <row r="94" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G94" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>34</v>
@@ -7444,7 +7410,7 @@
     </row>
     <row r="95" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G95" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>34</v>
@@ -7455,7 +7421,7 @@
     </row>
     <row r="96" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G96" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>34</v>
@@ -7466,7 +7432,7 @@
     </row>
     <row r="97" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G97" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>34</v>
@@ -7477,7 +7443,7 @@
     </row>
     <row r="98" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G98" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>34</v>
@@ -7488,7 +7454,7 @@
     </row>
     <row r="99" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G99" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>34</v>
@@ -7499,7 +7465,7 @@
     </row>
     <row r="100" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G100" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>34</v>
@@ -7510,7 +7476,7 @@
     </row>
     <row r="101" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G101" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>34</v>
@@ -7521,7 +7487,7 @@
     </row>
     <row r="102" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G102" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>34</v>
@@ -7532,7 +7498,7 @@
     </row>
     <row r="103" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G103" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I103" s="9" t="s">
         <v>34</v>
@@ -7543,7 +7509,7 @@
     </row>
     <row r="104" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G104" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I104" s="9" t="s">
         <v>34</v>
@@ -7554,7 +7520,7 @@
     </row>
     <row r="105" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G105" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>34</v>
@@ -7565,7 +7531,7 @@
     </row>
     <row r="106" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G106" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I106" s="9" t="s">
         <v>34</v>
@@ -7576,7 +7542,7 @@
     </row>
     <row r="107" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G107" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>34</v>
@@ -7587,7 +7553,7 @@
     </row>
     <row r="108" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G108" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>34</v>
@@ -7598,7 +7564,7 @@
     </row>
     <row r="109" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G109" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I109" s="9" t="s">
         <v>34</v>
@@ -7609,7 +7575,7 @@
     </row>
     <row r="110" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G110" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I110" s="9" t="s">
         <v>34</v>
@@ -7620,7 +7586,7 @@
     </row>
     <row r="111" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G111" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I111" s="9" t="s">
         <v>34</v>
@@ -7631,7 +7597,7 @@
     </row>
     <row r="112" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G112" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>34</v>
@@ -7642,7 +7608,7 @@
     </row>
     <row r="113" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G113" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I113" s="9" t="s">
         <v>34</v>
@@ -7653,7 +7619,7 @@
     </row>
     <row r="114" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G114" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I114" s="9" t="s">
         <v>34</v>
@@ -7664,7 +7630,7 @@
     </row>
     <row r="115" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G115" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I115" s="9" t="s">
         <v>34</v>
@@ -7675,7 +7641,7 @@
     </row>
     <row r="116" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G116" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>34</v>
@@ -7686,7 +7652,7 @@
     </row>
     <row r="117" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G117" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>34</v>
@@ -7697,7 +7663,7 @@
     </row>
     <row r="118" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G118" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>34</v>
@@ -7708,7 +7674,7 @@
     </row>
     <row r="119" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G119" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I119" s="9" t="s">
         <v>34</v>
@@ -7719,7 +7685,7 @@
     </row>
     <row r="120" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G120" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I120" s="9" t="s">
         <v>34</v>
@@ -7730,7 +7696,7 @@
     </row>
     <row r="121" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G121" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I121" s="9" t="s">
         <v>34</v>
@@ -7741,7 +7707,7 @@
     </row>
     <row r="122" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G122" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I122" s="9" t="s">
         <v>34</v>
@@ -7752,7 +7718,7 @@
     </row>
     <row r="123" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G123" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I123" s="9" t="s">
         <v>34</v>
@@ -7763,7 +7729,7 @@
     </row>
     <row r="124" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G124" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I124" s="9" t="s">
         <v>34</v>
@@ -7774,7 +7740,7 @@
     </row>
     <row r="125" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G125" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I125" s="9" t="s">
         <v>34</v>
@@ -7785,7 +7751,7 @@
     </row>
     <row r="126" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G126" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I126" s="9" t="s">
         <v>34</v>
@@ -7796,7 +7762,7 @@
     </row>
     <row r="127" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G127" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I127" s="9" t="s">
         <v>34</v>
@@ -7807,7 +7773,7 @@
     </row>
     <row r="128" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G128" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I128" s="9" t="s">
         <v>34</v>
@@ -7818,7 +7784,7 @@
     </row>
     <row r="129" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G129" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I129" s="9" t="s">
         <v>34</v>
@@ -7829,7 +7795,7 @@
     </row>
     <row r="130" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G130" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I130" s="9" t="s">
         <v>34</v>
@@ -7840,7 +7806,7 @@
     </row>
     <row r="131" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G131" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I131" s="9" t="s">
         <v>34</v>
@@ -7851,7 +7817,7 @@
     </row>
     <row r="132" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G132" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I132" s="9" t="s">
         <v>34</v>
@@ -7862,7 +7828,7 @@
     </row>
     <row r="133" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G133" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>34</v>
@@ -7873,7 +7839,7 @@
     </row>
     <row r="134" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G134" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I134" s="9" t="s">
         <v>34</v>
@@ -7884,7 +7850,7 @@
     </row>
     <row r="135" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G135" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>34</v>
@@ -7895,7 +7861,7 @@
     </row>
     <row r="136" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G136" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I136" s="9" t="s">
         <v>34</v>
@@ -7906,7 +7872,7 @@
     </row>
     <row r="137" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G137" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I137" s="9" t="s">
         <v>34</v>
@@ -7917,7 +7883,7 @@
     </row>
     <row r="138" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G138" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>34</v>
@@ -7928,7 +7894,7 @@
     </row>
     <row r="139" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G139" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I139" s="9" t="s">
         <v>34</v>
@@ -7939,7 +7905,7 @@
     </row>
     <row r="140" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G140" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I140" s="9" t="s">
         <v>34</v>
@@ -7950,7 +7916,7 @@
     </row>
     <row r="141" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G141" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I141" s="9" t="s">
         <v>34</v>
@@ -7961,7 +7927,7 @@
     </row>
     <row r="142" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G142" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I142" s="9" t="s">
         <v>34</v>
@@ -7972,7 +7938,7 @@
     </row>
     <row r="143" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G143" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I143" s="9" t="s">
         <v>34</v>
@@ -7983,7 +7949,7 @@
     </row>
     <row r="144" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G144" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I144" s="9" t="s">
         <v>34</v>
@@ -7994,7 +7960,7 @@
     </row>
     <row r="145" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G145" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I145" s="9" t="s">
         <v>34</v>
@@ -8005,7 +7971,7 @@
     </row>
     <row r="146" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G146" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I146" s="9" t="s">
         <v>34</v>
@@ -8016,7 +7982,7 @@
     </row>
     <row r="147" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G147" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I147" s="9" t="s">
         <v>34</v>
@@ -8027,7 +7993,7 @@
     </row>
     <row r="148" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G148" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I148" s="9" t="s">
         <v>34</v>
@@ -8038,7 +8004,7 @@
     </row>
     <row r="149" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G149" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I149" s="9" t="s">
         <v>34</v>
@@ -8049,7 +8015,7 @@
     </row>
     <row r="150" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G150" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I150" s="9" t="s">
         <v>34</v>
@@ -8060,7 +8026,7 @@
     </row>
     <row r="151" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G151" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>34</v>
@@ -8071,7 +8037,7 @@
     </row>
     <row r="152" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G152" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I152" s="9" t="s">
         <v>34</v>
@@ -8082,7 +8048,7 @@
     </row>
     <row r="153" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G153" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I153" s="9" t="s">
         <v>34</v>
@@ -8093,7 +8059,7 @@
     </row>
     <row r="154" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G154" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>34</v>
@@ -8104,7 +8070,7 @@
     </row>
     <row r="155" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G155" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I155" s="9" t="s">
         <v>34</v>
@@ -8115,7 +8081,7 @@
     </row>
     <row r="156" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G156" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I156" s="9" t="s">
         <v>34</v>
@@ -8126,7 +8092,7 @@
     </row>
     <row r="157" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G157" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I157" s="9" t="s">
         <v>34</v>
@@ -8137,7 +8103,7 @@
     </row>
     <row r="158" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G158" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I158" s="9" t="s">
         <v>34</v>
@@ -8148,7 +8114,7 @@
     </row>
     <row r="159" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G159" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I159" s="9" t="s">
         <v>34</v>
@@ -8159,7 +8125,7 @@
     </row>
     <row r="160" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G160" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I160" s="9" t="s">
         <v>34</v>
@@ -8170,7 +8136,7 @@
     </row>
     <row r="161" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G161" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I161" s="9" t="s">
         <v>34</v>
@@ -8181,7 +8147,7 @@
     </row>
     <row r="162" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G162" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I162" s="9" t="s">
         <v>34</v>
@@ -8192,7 +8158,7 @@
     </row>
     <row r="163" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G163" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I163" s="9" t="s">
         <v>34</v>
@@ -8203,7 +8169,7 @@
     </row>
     <row r="164" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G164" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I164" s="9" t="s">
         <v>34</v>
@@ -8214,7 +8180,7 @@
     </row>
     <row r="165" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G165" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I165" s="9" t="s">
         <v>34</v>
@@ -8225,7 +8191,7 @@
     </row>
     <row r="166" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G166" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I166" s="9" t="s">
         <v>34</v>
@@ -8236,7 +8202,7 @@
     </row>
     <row r="167" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G167" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I167" s="9" t="s">
         <v>34</v>
@@ -8247,7 +8213,7 @@
     </row>
     <row r="168" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G168" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I168" s="9" t="s">
         <v>34</v>
@@ -8258,7 +8224,7 @@
     </row>
     <row r="169" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G169" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I169" s="9" t="s">
         <v>34</v>
@@ -8269,7 +8235,7 @@
     </row>
     <row r="170" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G170" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I170" s="9" t="s">
         <v>34</v>
@@ -8280,7 +8246,7 @@
     </row>
     <row r="171" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G171" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I171" s="9" t="s">
         <v>34</v>
@@ -8291,7 +8257,7 @@
     </row>
     <row r="172" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G172" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I172" s="9" t="s">
         <v>34</v>
@@ -8302,7 +8268,7 @@
     </row>
     <row r="173" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G173" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I173" s="9" t="s">
         <v>34</v>
@@ -8313,7 +8279,7 @@
     </row>
     <row r="174" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G174" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I174" s="9" t="s">
         <v>34</v>
@@ -8324,7 +8290,7 @@
     </row>
     <row r="175" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G175" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I175" s="9" t="s">
         <v>34</v>
@@ -8335,7 +8301,7 @@
     </row>
     <row r="176" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G176" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I176" s="9" t="s">
         <v>34</v>
@@ -8346,7 +8312,7 @@
     </row>
     <row r="177" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G177" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I177" s="9" t="s">
         <v>34</v>
@@ -8357,7 +8323,7 @@
     </row>
     <row r="178" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G178" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I178" s="9" t="s">
         <v>34</v>
@@ -8368,7 +8334,7 @@
     </row>
     <row r="179" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G179" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I179" s="9" t="s">
         <v>34</v>
@@ -8379,7 +8345,7 @@
     </row>
     <row r="180" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G180" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I180" s="9" t="s">
         <v>34</v>
@@ -8390,7 +8356,7 @@
     </row>
     <row r="181" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G181" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I181" s="9" t="s">
         <v>34</v>
@@ -8401,7 +8367,7 @@
     </row>
     <row r="182" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G182" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I182" s="9" t="s">
         <v>34</v>
@@ -8412,7 +8378,7 @@
     </row>
     <row r="183" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G183" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I183" s="9" t="s">
         <v>34</v>
@@ -8423,7 +8389,7 @@
     </row>
     <row r="184" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G184" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I184" s="9" t="s">
         <v>34</v>
@@ -8434,7 +8400,7 @@
     </row>
     <row r="185" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G185" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I185" s="9" t="s">
         <v>34</v>
@@ -8445,7 +8411,7 @@
     </row>
     <row r="186" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G186" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I186" s="9" t="s">
         <v>34</v>
@@ -8456,7 +8422,7 @@
     </row>
     <row r="187" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G187" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I187" s="9" t="s">
         <v>34</v>
@@ -8467,7 +8433,7 @@
     </row>
     <row r="188" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G188" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I188" s="9" t="s">
         <v>34</v>
@@ -8478,7 +8444,7 @@
     </row>
     <row r="189" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G189" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I189" s="9" t="s">
         <v>34</v>
@@ -8489,7 +8455,7 @@
     </row>
     <row r="190" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G190" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I190" s="9" t="s">
         <v>34</v>
@@ -8500,7 +8466,7 @@
     </row>
     <row r="191" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G191" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I191" s="9" t="s">
         <v>34</v>
@@ -8511,7 +8477,7 @@
     </row>
     <row r="192" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G192" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I192" s="9" t="s">
         <v>34</v>
@@ -8522,7 +8488,7 @@
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G193" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I193" s="9" t="s">
         <v>34</v>
@@ -8533,7 +8499,7 @@
     </row>
     <row r="194" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G194" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I194" s="9" t="s">
         <v>34</v>
@@ -8544,7 +8510,7 @@
     </row>
     <row r="195" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G195" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I195" s="9" t="s">
         <v>34</v>
@@ -8555,7 +8521,7 @@
     </row>
     <row r="196" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G196" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I196" s="9" t="s">
         <v>34</v>
@@ -8566,7 +8532,7 @@
     </row>
     <row r="197" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G197" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I197" s="9" t="s">
         <v>34</v>
@@ -8577,7 +8543,7 @@
     </row>
     <row r="198" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G198" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I198" s="9" t="s">
         <v>34</v>
@@ -8588,7 +8554,7 @@
     </row>
     <row r="199" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G199" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I199" s="9" t="s">
         <v>34</v>
@@ -8599,7 +8565,7 @@
     </row>
     <row r="200" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G200" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I200" s="9" t="s">
         <v>34</v>
@@ -8610,7 +8576,7 @@
     </row>
     <row r="201" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G201" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I201" s="9" t="s">
         <v>34</v>
@@ -8621,7 +8587,7 @@
     </row>
     <row r="202" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G202" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I202" s="9" t="s">
         <v>34</v>
@@ -8632,7 +8598,7 @@
     </row>
     <row r="203" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G203" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I203" s="9" t="s">
         <v>34</v>
@@ -8643,7 +8609,7 @@
     </row>
     <row r="204" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G204" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I204" s="9" t="s">
         <v>34</v>
@@ -8654,7 +8620,7 @@
     </row>
     <row r="205" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G205" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I205" s="9" t="s">
         <v>34</v>
@@ -8665,7 +8631,7 @@
     </row>
     <row r="206" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G206" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I206" s="9" t="s">
         <v>34</v>
@@ -8676,7 +8642,7 @@
     </row>
     <row r="207" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G207" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I207" s="9" t="s">
         <v>34</v>
@@ -8687,7 +8653,7 @@
     </row>
     <row r="208" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G208" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I208" s="9" t="s">
         <v>34</v>
@@ -8698,7 +8664,7 @@
     </row>
     <row r="209" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G209" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I209" s="9" t="s">
         <v>34</v>
@@ -8709,7 +8675,7 @@
     </row>
     <row r="210" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G210" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I210" s="9" t="s">
         <v>34</v>
@@ -8720,7 +8686,7 @@
     </row>
     <row r="211" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G211" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I211" s="9" t="s">
         <v>34</v>
@@ -8731,7 +8697,7 @@
     </row>
     <row r="212" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G212" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I212" s="9" t="s">
         <v>34</v>
@@ -8742,7 +8708,7 @@
     </row>
     <row r="213" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G213" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I213" s="9" t="s">
         <v>34</v>
@@ -8753,7 +8719,7 @@
     </row>
     <row r="214" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G214" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I214" s="9" t="s">
         <v>34</v>
@@ -8764,7 +8730,7 @@
     </row>
     <row r="215" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G215" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I215" s="9" t="s">
         <v>34</v>
@@ -8775,7 +8741,7 @@
     </row>
     <row r="216" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G216" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I216" s="9" t="s">
         <v>34</v>
@@ -8786,7 +8752,7 @@
     </row>
     <row r="217" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G217" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I217" s="9" t="s">
         <v>34</v>
@@ -8797,7 +8763,7 @@
     </row>
     <row r="218" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G218" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I218" s="9" t="s">
         <v>34</v>
@@ -8808,7 +8774,7 @@
     </row>
     <row r="219" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G219" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I219" s="9" t="s">
         <v>34</v>
@@ -8819,7 +8785,7 @@
     </row>
     <row r="220" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G220" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I220" s="9" t="s">
         <v>34</v>
@@ -8830,7 +8796,7 @@
     </row>
     <row r="221" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G221" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I221" s="9" t="s">
         <v>34</v>
@@ -8841,7 +8807,7 @@
     </row>
     <row r="222" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G222" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I222" s="9" t="s">
         <v>34</v>
@@ -8852,7 +8818,7 @@
     </row>
     <row r="223" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G223" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I223" s="9" t="s">
         <v>34</v>
@@ -8863,7 +8829,7 @@
     </row>
     <row r="224" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G224" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I224" s="9" t="s">
         <v>34</v>
@@ -8874,7 +8840,7 @@
     </row>
     <row r="225" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G225" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I225" s="9" t="s">
         <v>34</v>
@@ -8885,7 +8851,7 @@
     </row>
     <row r="226" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G226" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I226" s="9" t="s">
         <v>34</v>
@@ -8896,7 +8862,7 @@
     </row>
     <row r="227" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G227" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I227" s="9" t="s">
         <v>34</v>
@@ -8907,7 +8873,7 @@
     </row>
     <row r="228" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G228" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I228" s="9" t="s">
         <v>34</v>
@@ -8918,7 +8884,7 @@
     </row>
     <row r="229" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G229" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I229" s="9" t="s">
         <v>34</v>
@@ -8929,7 +8895,7 @@
     </row>
     <row r="230" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G230" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I230" s="9" t="s">
         <v>34</v>
@@ -8940,7 +8906,7 @@
     </row>
     <row r="231" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G231" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I231" s="9" t="s">
         <v>34</v>
@@ -8951,7 +8917,7 @@
     </row>
     <row r="232" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G232" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I232" s="9" t="s">
         <v>34</v>
@@ -8962,7 +8928,7 @@
     </row>
     <row r="233" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G233" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I233" s="9" t="s">
         <v>34</v>
@@ -8973,7 +8939,7 @@
     </row>
     <row r="234" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G234" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I234" s="9" t="s">
         <v>34</v>
@@ -8984,7 +8950,7 @@
     </row>
     <row r="235" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G235" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I235" s="9" t="s">
         <v>34</v>
@@ -8995,7 +8961,7 @@
     </row>
     <row r="236" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G236" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I236" s="9" t="s">
         <v>34</v>
@@ -9006,7 +8972,7 @@
     </row>
     <row r="237" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G237" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I237" s="9" t="s">
         <v>34</v>
@@ -9017,7 +8983,7 @@
     </row>
     <row r="238" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G238" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I238" s="9" t="s">
         <v>34</v>
@@ -9028,7 +8994,7 @@
     </row>
     <row r="239" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G239" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I239" s="9" t="s">
         <v>34</v>
@@ -9039,7 +9005,7 @@
     </row>
     <row r="240" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G240" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I240" s="9" t="s">
         <v>34</v>
@@ -9050,7 +9016,7 @@
     </row>
     <row r="241" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G241" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I241" s="9" t="s">
         <v>34</v>
@@ -9061,7 +9027,7 @@
     </row>
     <row r="242" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G242" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I242" s="9" t="s">
         <v>34</v>
@@ -9072,7 +9038,7 @@
     </row>
     <row r="243" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G243" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I243" s="9" t="s">
         <v>34</v>
@@ -9083,7 +9049,7 @@
     </row>
     <row r="244" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G244" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I244" s="9" t="s">
         <v>34</v>
@@ -9094,7 +9060,7 @@
     </row>
     <row r="245" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G245" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I245" s="9" t="s">
         <v>34</v>
@@ -9105,7 +9071,7 @@
     </row>
     <row r="246" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G246" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I246" s="9" t="s">
         <v>34</v>
@@ -9116,7 +9082,7 @@
     </row>
     <row r="247" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G247" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I247" s="9" t="s">
         <v>34</v>
@@ -9127,7 +9093,7 @@
     </row>
     <row r="248" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G248" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I248" s="9" t="s">
         <v>34</v>
@@ -9138,7 +9104,7 @@
     </row>
     <row r="249" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G249" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I249" s="9" t="s">
         <v>34</v>
@@ -9149,7 +9115,7 @@
     </row>
     <row r="250" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G250" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I250" s="9" t="s">
         <v>34</v>
@@ -9160,7 +9126,7 @@
     </row>
     <row r="251" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G251" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I251" s="9" t="s">
         <v>34</v>
@@ -9171,7 +9137,7 @@
     </row>
     <row r="252" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G252" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I252" s="9" t="s">
         <v>34</v>
@@ -9182,7 +9148,7 @@
     </row>
     <row r="253" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G253" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I253" s="9" t="s">
         <v>34</v>
@@ -9193,7 +9159,7 @@
     </row>
     <row r="254" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G254" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I254" s="9" t="s">
         <v>34</v>
@@ -9204,7 +9170,7 @@
     </row>
     <row r="255" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G255" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I255" s="9" t="s">
         <v>34</v>
@@ -9215,7 +9181,7 @@
     </row>
     <row r="256" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G256" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I256" s="9" t="s">
         <v>34</v>
@@ -9226,7 +9192,7 @@
     </row>
     <row r="257" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G257" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I257" s="9" t="s">
         <v>34</v>
@@ -9237,7 +9203,7 @@
     </row>
     <row r="258" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G258" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I258" s="9" t="s">
         <v>34</v>
@@ -9248,7 +9214,7 @@
     </row>
     <row r="259" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G259" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I259" s="9" t="s">
         <v>34</v>
@@ -9259,7 +9225,7 @@
     </row>
     <row r="260" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G260" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I260" s="9" t="s">
         <v>34</v>
@@ -9270,7 +9236,7 @@
     </row>
     <row r="261" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G261" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I261" s="9" t="s">
         <v>34</v>
@@ -9281,7 +9247,7 @@
     </row>
     <row r="262" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G262" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I262" s="9" t="s">
         <v>34</v>
@@ -9292,7 +9258,7 @@
     </row>
     <row r="263" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G263" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I263" s="9" t="s">
         <v>34</v>
@@ -9303,7 +9269,7 @@
     </row>
     <row r="264" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G264" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I264" s="9" t="s">
         <v>34</v>
@@ -9314,7 +9280,7 @@
     </row>
     <row r="265" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G265" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I265" s="9" t="s">
         <v>34</v>
@@ -9325,7 +9291,7 @@
     </row>
     <row r="266" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G266" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I266" s="9" t="s">
         <v>34</v>
@@ -9336,7 +9302,7 @@
     </row>
     <row r="267" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G267" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I267" s="9" t="s">
         <v>34</v>
@@ -9347,7 +9313,7 @@
     </row>
     <row r="268" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G268" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I268" s="9" t="s">
         <v>34</v>
@@ -9358,7 +9324,7 @@
     </row>
     <row r="269" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G269" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I269" s="9" t="s">
         <v>34</v>
@@ -9369,7 +9335,7 @@
     </row>
     <row r="270" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G270" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I270" s="9" t="s">
         <v>34</v>
@@ -9380,7 +9346,7 @@
     </row>
     <row r="271" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G271" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I271" s="9" t="s">
         <v>34</v>
@@ -9391,7 +9357,7 @@
     </row>
     <row r="272" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G272" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I272" s="9" t="s">
         <v>34</v>
@@ -9402,7 +9368,7 @@
     </row>
     <row r="273" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G273" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I273" s="9" t="s">
         <v>34</v>
@@ -9413,7 +9379,7 @@
     </row>
     <row r="274" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G274" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I274" s="9" t="s">
         <v>34</v>
@@ -9424,7 +9390,7 @@
     </row>
     <row r="275" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G275" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I275" s="9" t="s">
         <v>34</v>
@@ -9435,7 +9401,7 @@
     </row>
     <row r="276" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G276" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I276" s="9" t="s">
         <v>34</v>
@@ -9446,7 +9412,7 @@
     </row>
     <row r="277" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G277" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I277" s="9" t="s">
         <v>34</v>
@@ -9457,7 +9423,7 @@
     </row>
     <row r="278" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G278" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I278" s="9" t="s">
         <v>34</v>
@@ -9468,7 +9434,7 @@
     </row>
     <row r="279" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G279" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I279" s="9" t="s">
         <v>34</v>
@@ -9479,7 +9445,7 @@
     </row>
     <row r="280" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G280" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I280" s="9" t="s">
         <v>34</v>
@@ -9490,7 +9456,7 @@
     </row>
     <row r="281" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G281" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I281" s="9" t="s">
         <v>34</v>
@@ -9501,7 +9467,7 @@
     </row>
     <row r="282" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G282" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I282" s="9" t="s">
         <v>34</v>
@@ -9512,7 +9478,7 @@
     </row>
     <row r="283" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G283" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I283" s="9" t="s">
         <v>34</v>
@@ -9523,7 +9489,7 @@
     </row>
     <row r="284" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G284" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I284" s="9" t="s">
         <v>34</v>
@@ -9534,7 +9500,7 @@
     </row>
     <row r="285" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G285" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I285" s="9" t="s">
         <v>34</v>
@@ -9545,7 +9511,7 @@
     </row>
     <row r="286" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G286" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I286" s="9" t="s">
         <v>34</v>
@@ -9556,7 +9522,7 @@
     </row>
     <row r="287" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G287" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I287" s="9" t="s">
         <v>34</v>
@@ -9567,7 +9533,7 @@
     </row>
     <row r="288" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G288" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I288" s="9" t="s">
         <v>34</v>
@@ -9578,7 +9544,7 @@
     </row>
     <row r="289" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G289" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I289" s="9" t="s">
         <v>34</v>
@@ -9589,7 +9555,7 @@
     </row>
     <row r="290" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G290" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I290" s="9" t="s">
         <v>34</v>
@@ -9600,7 +9566,7 @@
     </row>
     <row r="291" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G291" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I291" s="9" t="s">
         <v>34</v>
@@ -9611,7 +9577,7 @@
     </row>
     <row r="292" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G292" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I292" s="9" t="s">
         <v>34</v>
@@ -9622,7 +9588,7 @@
     </row>
     <row r="293" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G293" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I293" s="9" t="s">
         <v>34</v>
@@ -9633,7 +9599,7 @@
     </row>
     <row r="294" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G294" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I294" s="9" t="s">
         <v>34</v>
@@ -9644,7 +9610,7 @@
     </row>
     <row r="295" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G295" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I295" s="9" t="s">
         <v>34</v>
@@ -9655,7 +9621,7 @@
     </row>
     <row r="296" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G296" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I296" s="9" t="s">
         <v>34</v>
@@ -9666,7 +9632,7 @@
     </row>
     <row r="297" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G297" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I297" s="9" t="s">
         <v>34</v>
@@ -9677,7 +9643,7 @@
     </row>
     <row r="298" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G298" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I298" s="9" t="s">
         <v>34</v>
@@ -9688,7 +9654,7 @@
     </row>
     <row r="299" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G299" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I299" s="9" t="s">
         <v>34</v>
@@ -9699,7 +9665,7 @@
     </row>
     <row r="300" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G300" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I300" s="9" t="s">
         <v>34</v>
@@ -9710,7 +9676,7 @@
     </row>
     <row r="301" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G301" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I301" s="9" t="s">
         <v>34</v>
@@ -9721,7 +9687,7 @@
     </row>
     <row r="302" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G302" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I302" s="9" t="s">
         <v>34</v>
@@ -9732,7 +9698,7 @@
     </row>
     <row r="303" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G303" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I303" s="9" t="s">
         <v>34</v>
@@ -9743,7 +9709,7 @@
     </row>
     <row r="304" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G304" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I304" s="9" t="s">
         <v>34</v>
@@ -9754,7 +9720,7 @@
     </row>
     <row r="305" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G305" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I305" s="9" t="s">
         <v>34</v>
@@ -9765,7 +9731,7 @@
     </row>
     <row r="306" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G306" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I306" s="9" t="s">
         <v>34</v>
@@ -9776,7 +9742,7 @@
     </row>
     <row r="307" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G307" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I307" s="9" t="s">
         <v>34</v>
@@ -9787,7 +9753,7 @@
     </row>
     <row r="308" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G308" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I308" s="9" t="s">
         <v>34</v>
@@ -9798,7 +9764,7 @@
     </row>
     <row r="309" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G309" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I309" s="9" t="s">
         <v>34</v>
@@ -9809,7 +9775,7 @@
     </row>
     <row r="310" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G310" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I310" s="9" t="s">
         <v>34</v>
@@ -9820,7 +9786,7 @@
     </row>
     <row r="311" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G311" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I311" s="9" t="s">
         <v>34</v>
@@ -9831,7 +9797,7 @@
     </row>
     <row r="312" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G312" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I312" s="9" t="s">
         <v>34</v>
@@ -9842,7 +9808,7 @@
     </row>
     <row r="313" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G313" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I313" s="9" t="s">
         <v>34</v>
@@ -9853,7 +9819,7 @@
     </row>
     <row r="314" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G314" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I314" s="9" t="s">
         <v>34</v>
@@ -9864,7 +9830,7 @@
     </row>
     <row r="315" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G315" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I315" s="9" t="s">
         <v>34</v>
@@ -9875,7 +9841,7 @@
     </row>
     <row r="316" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G316" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I316" s="9" t="s">
         <v>34</v>
@@ -9886,7 +9852,7 @@
     </row>
     <row r="317" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G317" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I317" s="9" t="s">
         <v>34</v>
@@ -9897,7 +9863,7 @@
     </row>
     <row r="318" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G318" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I318" s="9" t="s">
         <v>34</v>
@@ -9908,7 +9874,7 @@
     </row>
     <row r="319" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G319" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I319" s="9" t="s">
         <v>34</v>
@@ -9919,7 +9885,7 @@
     </row>
     <row r="320" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G320" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I320" s="9" t="s">
         <v>34</v>
@@ -9930,7 +9896,7 @@
     </row>
     <row r="321" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G321" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I321" s="9" t="s">
         <v>34</v>
@@ -9941,7 +9907,7 @@
     </row>
     <row r="322" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G322" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I322" s="9" t="s">
         <v>34</v>
@@ -9952,7 +9918,7 @@
     </row>
     <row r="323" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G323" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I323" s="9" t="s">
         <v>34</v>
@@ -9963,7 +9929,7 @@
     </row>
     <row r="324" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G324" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I324" s="9" t="s">
         <v>34</v>
@@ -9974,7 +9940,7 @@
     </row>
     <row r="325" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G325" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I325" s="9" t="s">
         <v>34</v>
@@ -9985,7 +9951,7 @@
     </row>
     <row r="326" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G326" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I326" s="9" t="s">
         <v>34</v>
@@ -9996,7 +9962,7 @@
     </row>
     <row r="327" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G327" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I327" s="9" t="s">
         <v>34</v>
@@ -10007,7 +9973,7 @@
     </row>
     <row r="328" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G328" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I328" s="9" t="s">
         <v>34</v>
@@ -10018,7 +9984,7 @@
     </row>
     <row r="329" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G329" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I329" s="9" t="s">
         <v>34</v>
@@ -10029,7 +9995,7 @@
     </row>
     <row r="330" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G330" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I330" s="9" t="s">
         <v>34</v>
@@ -10040,7 +10006,7 @@
     </row>
     <row r="331" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G331" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I331" s="9" t="s">
         <v>34</v>
@@ -10051,7 +10017,7 @@
     </row>
     <row r="332" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G332" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I332" s="9" t="s">
         <v>34</v>
@@ -10062,7 +10028,7 @@
     </row>
     <row r="333" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G333" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I333" s="9" t="s">
         <v>34</v>
@@ -10073,7 +10039,7 @@
     </row>
     <row r="334" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G334" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I334" s="9" t="s">
         <v>34</v>
@@ -10084,7 +10050,7 @@
     </row>
     <row r="335" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G335" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I335" s="9" t="s">
         <v>34</v>
@@ -10095,7 +10061,7 @@
     </row>
     <row r="336" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G336" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I336" s="9" t="s">
         <v>34</v>
@@ -10106,7 +10072,7 @@
     </row>
     <row r="337" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G337" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I337" s="9" t="s">
         <v>34</v>
@@ -10117,7 +10083,7 @@
     </row>
     <row r="338" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G338" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I338" s="9" t="s">
         <v>34</v>
@@ -10128,7 +10094,7 @@
     </row>
     <row r="339" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G339" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I339" s="9" t="s">
         <v>34</v>
@@ -10139,7 +10105,7 @@
     </row>
     <row r="340" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G340" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I340" s="9" t="s">
         <v>34</v>
@@ -10150,7 +10116,7 @@
     </row>
     <row r="341" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G341" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I341" s="9" t="s">
         <v>34</v>
@@ -10161,7 +10127,7 @@
     </row>
     <row r="342" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G342" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I342" s="9" t="s">
         <v>34</v>
@@ -10172,7 +10138,7 @@
     </row>
     <row r="343" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G343" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I343" s="9" t="s">
         <v>34</v>
@@ -10183,7 +10149,7 @@
     </row>
     <row r="344" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G344" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I344" s="9" t="s">
         <v>34</v>
@@ -10194,7 +10160,7 @@
     </row>
     <row r="345" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G345" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I345" s="9" t="s">
         <v>34</v>
@@ -10205,7 +10171,7 @@
     </row>
     <row r="346" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G346" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I346" s="9" t="s">
         <v>34</v>
@@ -10216,7 +10182,7 @@
     </row>
     <row r="347" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G347" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I347" s="9" t="s">
         <v>34</v>
@@ -10227,7 +10193,7 @@
     </row>
     <row r="348" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G348" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I348" s="9" t="s">
         <v>34</v>
@@ -10238,7 +10204,7 @@
     </row>
     <row r="349" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G349" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I349" s="9" t="s">
         <v>34</v>
@@ -10249,7 +10215,7 @@
     </row>
     <row r="350" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G350" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I350" s="9" t="s">
         <v>34</v>
@@ -10260,7 +10226,7 @@
     </row>
     <row r="351" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G351" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I351" s="9" t="s">
         <v>34</v>
@@ -10271,7 +10237,7 @@
     </row>
     <row r="352" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G352" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I352" s="9" t="s">
         <v>34</v>
@@ -10282,7 +10248,7 @@
     </row>
     <row r="353" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G353" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I353" s="9" t="s">
         <v>34</v>
@@ -10293,7 +10259,7 @@
     </row>
     <row r="354" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G354" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I354" s="9" t="s">
         <v>34</v>
@@ -10304,7 +10270,7 @@
     </row>
     <row r="355" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G355" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I355" s="9" t="s">
         <v>34</v>
@@ -10315,7 +10281,7 @@
     </row>
     <row r="356" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G356" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I356" s="9" t="s">
         <v>34</v>
@@ -10326,7 +10292,7 @@
     </row>
     <row r="357" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G357" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I357" s="9" t="s">
         <v>34</v>
@@ -10337,7 +10303,7 @@
     </row>
     <row r="358" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G358" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I358" s="9" t="s">
         <v>34</v>
@@ -10348,7 +10314,7 @@
     </row>
     <row r="359" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G359" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I359" s="9" t="s">
         <v>34</v>
@@ -10359,7 +10325,7 @@
     </row>
     <row r="360" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G360" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I360" s="9" t="s">
         <v>34</v>
@@ -10370,7 +10336,7 @@
     </row>
     <row r="361" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G361" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I361" s="9" t="s">
         <v>34</v>
@@ -10381,7 +10347,7 @@
     </row>
     <row r="362" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G362" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I362" s="9" t="s">
         <v>34</v>
@@ -10392,7 +10358,7 @@
     </row>
     <row r="363" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G363" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I363" s="9" t="s">
         <v>34</v>
@@ -10403,7 +10369,7 @@
     </row>
     <row r="364" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G364" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I364" s="9" t="s">
         <v>34</v>
@@ -10414,7 +10380,7 @@
     </row>
     <row r="365" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G365" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I365" s="9" t="s">
         <v>34</v>
@@ -10425,7 +10391,7 @@
     </row>
     <row r="366" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G366" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I366" s="9" t="s">
         <v>34</v>
@@ -10436,7 +10402,7 @@
     </row>
     <row r="367" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G367" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I367" s="9" t="s">
         <v>34</v>
@@ -10447,7 +10413,7 @@
     </row>
     <row r="368" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G368" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I368" s="9" t="s">
         <v>34</v>
@@ -10458,7 +10424,7 @@
     </row>
     <row r="369" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G369" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I369" s="9" t="s">
         <v>34</v>
@@ -10469,7 +10435,7 @@
     </row>
     <row r="370" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G370" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I370" s="9" t="s">
         <v>34</v>
@@ -10480,7 +10446,7 @@
     </row>
     <row r="371" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G371" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I371" s="9" t="s">
         <v>34</v>
@@ -10491,7 +10457,7 @@
     </row>
     <row r="372" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G372" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I372" s="9" t="s">
         <v>34</v>
@@ -10502,7 +10468,7 @@
     </row>
     <row r="373" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G373" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I373" s="9" t="s">
         <v>34</v>
@@ -10513,7 +10479,7 @@
     </row>
     <row r="374" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G374" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I374" s="9" t="s">
         <v>34</v>
@@ -10524,7 +10490,7 @@
     </row>
     <row r="375" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G375" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I375" s="9" t="s">
         <v>34</v>
@@ -10535,7 +10501,7 @@
     </row>
     <row r="376" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G376" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I376" s="9" t="s">
         <v>34</v>
@@ -10546,7 +10512,7 @@
     </row>
     <row r="377" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G377" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I377" s="9" t="s">
         <v>34</v>
@@ -10557,7 +10523,7 @@
     </row>
     <row r="378" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G378" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I378" s="9" t="s">
         <v>34</v>
@@ -10568,7 +10534,7 @@
     </row>
     <row r="379" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G379" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I379" s="9" t="s">
         <v>34</v>
@@ -10579,7 +10545,7 @@
     </row>
     <row r="380" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G380" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I380" s="9" t="s">
         <v>34</v>
@@ -10590,7 +10556,7 @@
     </row>
     <row r="381" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G381" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I381" s="9" t="s">
         <v>34</v>
@@ -10601,7 +10567,7 @@
     </row>
     <row r="382" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G382" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I382" s="9" t="s">
         <v>34</v>
@@ -10612,7 +10578,7 @@
     </row>
     <row r="383" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G383" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I383" s="9" t="s">
         <v>34</v>
@@ -10623,7 +10589,7 @@
     </row>
     <row r="384" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G384" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I384" s="9" t="s">
         <v>34</v>
@@ -10634,7 +10600,7 @@
     </row>
     <row r="385" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G385" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I385" s="9" t="s">
         <v>34</v>
@@ -10645,7 +10611,7 @@
     </row>
     <row r="386" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G386" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I386" s="9" t="s">
         <v>34</v>
@@ -10656,7 +10622,7 @@
     </row>
     <row r="387" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G387" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I387" s="9" t="s">
         <v>34</v>
@@ -10667,7 +10633,7 @@
     </row>
     <row r="388" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G388" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I388" s="9" t="s">
         <v>34</v>
@@ -10678,7 +10644,7 @@
     </row>
     <row r="389" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G389" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I389" s="9" t="s">
         <v>34</v>
@@ -10689,7 +10655,7 @@
     </row>
     <row r="390" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G390" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I390" s="9" t="s">
         <v>34</v>
@@ -10700,7 +10666,7 @@
     </row>
     <row r="391" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G391" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I391" s="9" t="s">
         <v>34</v>
@@ -10711,7 +10677,7 @@
     </row>
     <row r="392" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G392" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I392" s="9" t="s">
         <v>34</v>
@@ -10722,7 +10688,7 @@
     </row>
     <row r="393" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G393" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I393" s="9" t="s">
         <v>34</v>
@@ -10733,7 +10699,7 @@
     </row>
     <row r="394" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G394" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I394" s="9" t="s">
         <v>34</v>
@@ -10744,7 +10710,7 @@
     </row>
     <row r="395" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G395" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I395" s="9" t="s">
         <v>34</v>
@@ -10755,7 +10721,7 @@
     </row>
     <row r="396" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G396" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I396" s="9" t="s">
         <v>34</v>
@@ -10766,7 +10732,7 @@
     </row>
     <row r="397" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G397" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I397" s="9" t="s">
         <v>34</v>
@@ -10777,7 +10743,7 @@
     </row>
     <row r="398" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G398" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I398" s="9" t="s">
         <v>34</v>
@@ -10788,7 +10754,7 @@
     </row>
     <row r="399" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G399" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I399" s="9" t="s">
         <v>34</v>
@@ -10799,7 +10765,7 @@
     </row>
     <row r="400" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G400" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I400" s="9" t="s">
         <v>34</v>
@@ -10810,7 +10776,7 @@
     </row>
     <row r="401" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G401" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I401" s="9" t="s">
         <v>34</v>
@@ -10821,7 +10787,7 @@
     </row>
     <row r="402" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G402" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I402" s="9" t="s">
         <v>34</v>
@@ -10832,7 +10798,7 @@
     </row>
     <row r="403" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G403" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I403" s="9" t="s">
         <v>34</v>
@@ -10843,7 +10809,7 @@
     </row>
     <row r="404" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G404" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I404" s="9" t="s">
         <v>34</v>
@@ -10854,7 +10820,7 @@
     </row>
     <row r="405" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G405" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I405" s="9" t="s">
         <v>34</v>
@@ -10865,7 +10831,7 @@
     </row>
     <row r="406" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G406" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I406" s="9" t="s">
         <v>34</v>
@@ -10876,7 +10842,7 @@
     </row>
     <row r="407" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G407" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I407" s="9" t="s">
         <v>34</v>
@@ -10887,7 +10853,7 @@
     </row>
     <row r="408" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G408" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I408" s="9" t="s">
         <v>34</v>
@@ -10898,7 +10864,7 @@
     </row>
     <row r="409" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G409" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I409" s="9" t="s">
         <v>34</v>
@@ -10909,7 +10875,7 @@
     </row>
     <row r="410" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G410" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I410" s="9" t="s">
         <v>34</v>
@@ -10920,7 +10886,7 @@
     </row>
     <row r="411" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G411" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I411" s="9" t="s">
         <v>34</v>
@@ -10931,7 +10897,7 @@
     </row>
     <row r="412" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G412" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I412" s="9" t="s">
         <v>34</v>
@@ -10942,7 +10908,7 @@
     </row>
     <row r="413" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G413" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I413" s="9" t="s">
         <v>34</v>
@@ -10953,7 +10919,7 @@
     </row>
     <row r="414" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G414" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I414" s="9" t="s">
         <v>34</v>
@@ -10964,7 +10930,7 @@
     </row>
     <row r="415" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G415" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I415" s="9" t="s">
         <v>34</v>
@@ -10975,7 +10941,7 @@
     </row>
     <row r="416" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G416" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I416" s="9" t="s">
         <v>34</v>
@@ -10986,7 +10952,7 @@
     </row>
     <row r="417" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G417" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I417" s="9" t="s">
         <v>34</v>
@@ -10997,7 +10963,7 @@
     </row>
     <row r="418" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G418" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I418" s="9" t="s">
         <v>34</v>
@@ -11008,7 +10974,7 @@
     </row>
     <row r="419" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G419" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I419" s="9" t="s">
         <v>34</v>
@@ -11019,7 +10985,7 @@
     </row>
     <row r="420" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G420" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I420" s="9" t="s">
         <v>34</v>
@@ -11030,7 +10996,7 @@
     </row>
     <row r="421" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G421" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I421" s="9" t="s">
         <v>34</v>
@@ -11041,7 +11007,7 @@
     </row>
     <row r="422" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G422" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I422" s="9" t="s">
         <v>34</v>
@@ -11052,7 +11018,7 @@
     </row>
     <row r="423" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G423" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I423" s="9" t="s">
         <v>34</v>
@@ -11063,7 +11029,7 @@
     </row>
     <row r="424" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G424" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I424" s="9" t="s">
         <v>34</v>
@@ -11074,7 +11040,7 @@
     </row>
     <row r="425" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G425" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I425" s="9" t="s">
         <v>34</v>
@@ -11085,7 +11051,7 @@
     </row>
     <row r="426" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G426" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I426" s="9" t="s">
         <v>34</v>
@@ -11096,7 +11062,7 @@
     </row>
     <row r="427" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G427" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I427" s="9" t="s">
         <v>34</v>
@@ -11107,7 +11073,7 @@
     </row>
     <row r="428" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G428" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I428" s="9" t="s">
         <v>34</v>
@@ -11118,7 +11084,7 @@
     </row>
     <row r="429" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G429" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I429" s="9" t="s">
         <v>34</v>
@@ -11129,7 +11095,7 @@
     </row>
     <row r="430" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G430" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I430" s="9" t="s">
         <v>34</v>
@@ -11140,7 +11106,7 @@
     </row>
     <row r="431" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G431" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I431" s="9" t="s">
         <v>34</v>
@@ -11151,7 +11117,7 @@
     </row>
     <row r="432" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G432" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I432" s="9" t="s">
         <v>34</v>
@@ -11162,7 +11128,7 @@
     </row>
     <row r="433" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G433" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I433" s="9" t="s">
         <v>34</v>
@@ -11173,7 +11139,7 @@
     </row>
     <row r="434" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G434" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I434" s="9" t="s">
         <v>34</v>
@@ -11184,7 +11150,7 @@
     </row>
     <row r="435" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G435" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I435" s="9" t="s">
         <v>34</v>
@@ -11195,7 +11161,7 @@
     </row>
     <row r="436" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G436" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I436" s="9" t="s">
         <v>34</v>
@@ -11206,7 +11172,7 @@
     </row>
     <row r="437" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G437" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I437" s="9" t="s">
         <v>34</v>
@@ -11217,7 +11183,7 @@
     </row>
     <row r="438" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G438" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I438" s="9" t="s">
         <v>34</v>
@@ -11228,7 +11194,7 @@
     </row>
     <row r="439" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G439" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I439" s="9" t="s">
         <v>34</v>
@@ -11239,7 +11205,7 @@
     </row>
     <row r="440" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G440" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I440" s="9" t="s">
         <v>34</v>
@@ -11250,7 +11216,7 @@
     </row>
     <row r="441" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G441" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I441" s="9" t="s">
         <v>34</v>
@@ -11261,7 +11227,7 @@
     </row>
     <row r="442" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G442" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I442" s="9" t="s">
         <v>34</v>
@@ -11272,7 +11238,7 @@
     </row>
     <row r="443" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G443" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I443" s="9" t="s">
         <v>34</v>
@@ -11283,7 +11249,7 @@
     </row>
     <row r="444" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G444" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I444" s="9" t="s">
         <v>34</v>
@@ -11294,7 +11260,7 @@
     </row>
     <row r="445" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G445" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I445" s="9" t="s">
         <v>34</v>
@@ -11305,7 +11271,7 @@
     </row>
     <row r="446" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G446" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I446" s="9" t="s">
         <v>34</v>
@@ -11316,7 +11282,7 @@
     </row>
     <row r="447" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G447" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I447" s="9" t="s">
         <v>34</v>
@@ -11327,7 +11293,7 @@
     </row>
     <row r="448" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G448" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I448" s="9" t="s">
         <v>34</v>
@@ -11338,7 +11304,7 @@
     </row>
     <row r="449" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G449" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I449" s="9" t="s">
         <v>34</v>
@@ -11349,7 +11315,7 @@
     </row>
     <row r="450" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G450" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I450" s="9" t="s">
         <v>34</v>
@@ -11360,7 +11326,7 @@
     </row>
     <row r="451" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G451" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I451" s="9" t="s">
         <v>34</v>
@@ -11371,7 +11337,7 @@
     </row>
     <row r="452" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G452" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I452" s="9" t="s">
         <v>34</v>
@@ -11382,7 +11348,7 @@
     </row>
     <row r="453" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G453" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I453" s="9" t="s">
         <v>34</v>
@@ -11393,7 +11359,7 @@
     </row>
     <row r="454" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G454" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I454" s="9" t="s">
         <v>34</v>
@@ -11404,7 +11370,7 @@
     </row>
     <row r="455" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G455" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I455" s="9" t="s">
         <v>34</v>
@@ -11415,7 +11381,7 @@
     </row>
     <row r="456" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G456" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I456" s="9" t="s">
         <v>34</v>
@@ -11426,7 +11392,7 @@
     </row>
     <row r="457" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G457" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I457" s="9" t="s">
         <v>34</v>
@@ -11437,7 +11403,7 @@
     </row>
     <row r="458" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G458" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I458" s="9" t="s">
         <v>34</v>
@@ -11448,7 +11414,7 @@
     </row>
     <row r="459" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G459" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I459" s="9" t="s">
         <v>34</v>
@@ -11459,7 +11425,7 @@
     </row>
     <row r="460" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G460" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I460" s="9" t="s">
         <v>34</v>
@@ -11470,7 +11436,7 @@
     </row>
     <row r="461" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G461" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I461" s="9" t="s">
         <v>34</v>
@@ -11481,7 +11447,7 @@
     </row>
     <row r="462" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G462" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I462" s="9" t="s">
         <v>34</v>
@@ -11492,7 +11458,7 @@
     </row>
     <row r="463" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G463" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I463" s="9" t="s">
         <v>34</v>
@@ -11503,7 +11469,7 @@
     </row>
     <row r="464" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G464" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I464" s="9" t="s">
         <v>34</v>
@@ -11514,7 +11480,7 @@
     </row>
     <row r="465" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G465" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I465" s="9" t="s">
         <v>34</v>
@@ -11525,7 +11491,7 @@
     </row>
     <row r="466" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G466" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I466" s="9" t="s">
         <v>34</v>
@@ -11536,7 +11502,7 @@
     </row>
     <row r="467" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G467" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I467" s="9" t="s">
         <v>34</v>
@@ -11547,7 +11513,7 @@
     </row>
     <row r="468" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G468" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I468" s="9" t="s">
         <v>34</v>
@@ -11558,7 +11524,7 @@
     </row>
     <row r="469" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G469" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I469" s="9" t="s">
         <v>34</v>
@@ -11569,7 +11535,7 @@
     </row>
     <row r="470" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G470" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I470" s="9" t="s">
         <v>34</v>
@@ -11580,7 +11546,7 @@
     </row>
     <row r="471" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G471" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I471" s="9" t="s">
         <v>34</v>
@@ -11591,7 +11557,7 @@
     </row>
     <row r="472" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G472" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I472" s="9" t="s">
         <v>34</v>
@@ -11602,7 +11568,7 @@
     </row>
     <row r="473" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G473" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I473" s="9" t="s">
         <v>34</v>
@@ -11613,7 +11579,7 @@
     </row>
     <row r="474" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G474" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I474" s="9" t="s">
         <v>34</v>
@@ -11624,7 +11590,7 @@
     </row>
     <row r="475" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G475" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I475" s="9" t="s">
         <v>34</v>
@@ -11635,7 +11601,7 @@
     </row>
     <row r="476" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G476" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I476" s="9" t="s">
         <v>34</v>
@@ -11646,7 +11612,7 @@
     </row>
     <row r="477" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G477" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I477" s="9" t="s">
         <v>34</v>
@@ -11657,7 +11623,7 @@
     </row>
     <row r="478" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G478" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I478" s="9" t="s">
         <v>34</v>
@@ -11668,7 +11634,7 @@
     </row>
     <row r="479" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G479" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I479" s="9" t="s">
         <v>34</v>
@@ -11679,7 +11645,7 @@
     </row>
     <row r="480" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G480" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I480" s="9" t="s">
         <v>34</v>
@@ -11690,7 +11656,7 @@
     </row>
     <row r="481" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G481" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I481" s="9" t="s">
         <v>34</v>
@@ -11701,7 +11667,7 @@
     </row>
     <row r="482" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G482" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I482" s="9" t="s">
         <v>34</v>
@@ -11712,7 +11678,7 @@
     </row>
     <row r="483" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G483" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I483" s="9" t="s">
         <v>34</v>
@@ -11723,7 +11689,7 @@
     </row>
     <row r="484" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G484" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I484" s="9" t="s">
         <v>34</v>
@@ -11734,7 +11700,7 @@
     </row>
     <row r="485" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G485" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I485" s="9" t="s">
         <v>34</v>
@@ -11745,7 +11711,7 @@
     </row>
     <row r="486" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G486" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I486" s="9" t="s">
         <v>34</v>
@@ -11756,7 +11722,7 @@
     </row>
     <row r="487" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G487" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I487" s="9" t="s">
         <v>34</v>
@@ -11767,7 +11733,7 @@
     </row>
     <row r="488" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G488" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I488" s="9" t="s">
         <v>34</v>
@@ -11778,7 +11744,7 @@
     </row>
     <row r="489" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G489" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I489" s="9" t="s">
         <v>34</v>
@@ -11789,7 +11755,7 @@
     </row>
     <row r="490" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G490" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I490" s="9" t="s">
         <v>34</v>
@@ -11800,7 +11766,7 @@
     </row>
     <row r="491" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G491" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I491" s="9" t="s">
         <v>34</v>
@@ -11811,7 +11777,7 @@
     </row>
     <row r="492" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G492" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I492" s="9" t="s">
         <v>34</v>
@@ -11822,7 +11788,7 @@
     </row>
     <row r="493" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G493" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I493" s="9" t="s">
         <v>34</v>
@@ -11833,7 +11799,7 @@
     </row>
     <row r="494" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G494" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I494" s="9" t="s">
         <v>34</v>
@@ -11844,7 +11810,7 @@
     </row>
     <row r="495" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G495" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I495" s="9" t="s">
         <v>34</v>
@@ -11855,7 +11821,7 @@
     </row>
     <row r="496" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G496" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I496" s="9" t="s">
         <v>34</v>
@@ -11866,7 +11832,7 @@
     </row>
     <row r="497" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G497" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I497" s="9" t="s">
         <v>34</v>
@@ -11877,7 +11843,7 @@
     </row>
     <row r="498" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G498" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I498" s="9" t="s">
         <v>34</v>
@@ -11888,7 +11854,7 @@
     </row>
     <row r="499" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G499" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I499" s="9" t="s">
         <v>34</v>
@@ -11899,7 +11865,7 @@
     </row>
     <row r="500" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G500" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I500" s="9" t="s">
         <v>34</v>
@@ -11910,7 +11876,7 @@
     </row>
     <row r="501" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G501" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I501" s="9" t="s">
         <v>34</v>
@@ -11921,7 +11887,7 @@
     </row>
     <row r="502" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G502" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I502" s="9" t="s">
         <v>34</v>
@@ -11932,7 +11898,7 @@
     </row>
     <row r="503" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G503" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I503" s="9" t="s">
         <v>34</v>
@@ -11943,7 +11909,7 @@
     </row>
     <row r="504" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G504" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I504" s="9" t="s">
         <v>34</v>
@@ -11954,7 +11920,7 @@
     </row>
     <row r="505" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G505" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I505" s="9" t="s">
         <v>34</v>
@@ -11965,7 +11931,7 @@
     </row>
     <row r="506" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G506" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I506" s="9" t="s">
         <v>34</v>
@@ -11976,7 +11942,7 @@
     </row>
     <row r="507" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G507" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I507" s="9" t="s">
         <v>34</v>
@@ -11987,7 +11953,7 @@
     </row>
     <row r="508" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G508" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I508" s="9" t="s">
         <v>34</v>
@@ -11998,7 +11964,7 @@
     </row>
     <row r="509" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G509" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I509" s="9" t="s">
         <v>34</v>
@@ -12009,7 +11975,7 @@
     </row>
     <row r="510" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G510" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I510" s="9" t="s">
         <v>34</v>
@@ -12020,7 +11986,7 @@
     </row>
     <row r="511" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G511" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I511" s="9" t="s">
         <v>34</v>
@@ -12031,7 +11997,7 @@
     </row>
     <row r="512" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G512" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I512" s="9" t="s">
         <v>34</v>
@@ -12042,7 +12008,7 @@
     </row>
     <row r="513" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G513" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I513" s="9" t="s">
         <v>34</v>
@@ -12053,7 +12019,7 @@
     </row>
     <row r="514" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G514" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I514" s="9" t="s">
         <v>34</v>
@@ -12064,7 +12030,7 @@
     </row>
     <row r="515" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G515" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I515" s="9" t="s">
         <v>34</v>
@@ -12075,7 +12041,7 @@
     </row>
     <row r="516" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G516" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I516" s="9" t="s">
         <v>34</v>
@@ -12086,7 +12052,7 @@
     </row>
     <row r="517" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G517" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I517" s="9" t="s">
         <v>34</v>
@@ -12097,7 +12063,7 @@
     </row>
     <row r="518" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G518" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I518" s="9" t="s">
         <v>34</v>
@@ -12108,7 +12074,7 @@
     </row>
     <row r="519" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G519" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I519" s="9" t="s">
         <v>34</v>
@@ -12119,7 +12085,7 @@
     </row>
     <row r="520" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G520" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I520" s="9" t="s">
         <v>34</v>
@@ -12130,7 +12096,7 @@
     </row>
     <row r="521" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G521" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I521" s="9" t="s">
         <v>34</v>
@@ -12141,7 +12107,7 @@
     </row>
     <row r="522" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G522" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I522" s="9" t="s">
         <v>34</v>
@@ -12152,7 +12118,7 @@
     </row>
     <row r="523" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G523" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I523" s="9" t="s">
         <v>34</v>
@@ -12163,7 +12129,7 @@
     </row>
     <row r="524" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G524" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I524" s="9" t="s">
         <v>34</v>
@@ -12174,7 +12140,7 @@
     </row>
     <row r="525" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G525" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I525" s="9" t="s">
         <v>34</v>
@@ -12185,7 +12151,7 @@
     </row>
     <row r="526" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G526" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I526" s="9" t="s">
         <v>34</v>
@@ -12196,7 +12162,7 @@
     </row>
     <row r="527" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G527" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I527" s="9" t="s">
         <v>34</v>
@@ -12207,7 +12173,7 @@
     </row>
     <row r="528" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G528" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I528" s="9" t="s">
         <v>34</v>
@@ -12218,7 +12184,7 @@
     </row>
     <row r="529" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G529" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I529" s="9" t="s">
         <v>34</v>
@@ -12229,7 +12195,7 @@
     </row>
     <row r="530" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G530" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I530" s="9" t="s">
         <v>34</v>
@@ -12240,7 +12206,7 @@
     </row>
     <row r="531" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G531" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I531" s="9" t="s">
         <v>34</v>
@@ -12251,7 +12217,7 @@
     </row>
     <row r="532" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G532" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I532" s="9" t="s">
         <v>34</v>
@@ -12262,7 +12228,7 @@
     </row>
     <row r="533" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G533" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I533" s="9" t="s">
         <v>34</v>
@@ -12273,7 +12239,7 @@
     </row>
     <row r="534" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G534" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I534" s="9" t="s">
         <v>34</v>
@@ -12284,7 +12250,7 @@
     </row>
     <row r="535" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G535" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I535" s="9" t="s">
         <v>34</v>
@@ -12295,7 +12261,7 @@
     </row>
     <row r="536" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G536" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I536" s="9" t="s">
         <v>34</v>
@@ -12306,7 +12272,7 @@
     </row>
     <row r="537" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G537" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I537" s="9" t="s">
         <v>34</v>
@@ -12317,7 +12283,7 @@
     </row>
     <row r="538" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G538" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I538" s="9" t="s">
         <v>34</v>
@@ -12328,7 +12294,7 @@
     </row>
     <row r="539" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G539" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I539" s="9" t="s">
         <v>34</v>
@@ -12339,7 +12305,7 @@
     </row>
     <row r="540" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G540" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I540" s="9" t="s">
         <v>34</v>
@@ -12350,7 +12316,7 @@
     </row>
     <row r="541" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G541" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I541" s="9" t="s">
         <v>34</v>
@@ -12361,7 +12327,7 @@
     </row>
     <row r="542" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G542" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I542" s="9" t="s">
         <v>34</v>
@@ -12372,7 +12338,7 @@
     </row>
     <row r="543" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G543" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I543" s="9" t="s">
         <v>34</v>
@@ -12383,7 +12349,7 @@
     </row>
     <row r="544" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G544" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I544" s="9" t="s">
         <v>34</v>
@@ -12394,7 +12360,7 @@
     </row>
     <row r="545" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G545" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I545" s="9" t="s">
         <v>34</v>
@@ -12405,7 +12371,7 @@
     </row>
     <row r="546" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G546" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I546" s="9" t="s">
         <v>34</v>
@@ -12416,7 +12382,7 @@
     </row>
     <row r="547" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G547" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I547" s="9" t="s">
         <v>34</v>
@@ -12427,7 +12393,7 @@
     </row>
     <row r="548" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G548" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I548" s="9" t="s">
         <v>34</v>
@@ -12438,7 +12404,7 @@
     </row>
     <row r="549" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G549" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I549" s="9" t="s">
         <v>34</v>
@@ -12449,7 +12415,7 @@
     </row>
     <row r="550" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G550" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I550" s="9" t="s">
         <v>34</v>
@@ -12460,7 +12426,7 @@
     </row>
     <row r="551" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G551" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I551" s="9" t="s">
         <v>34</v>
@@ -12471,7 +12437,7 @@
     </row>
     <row r="552" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G552" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I552" s="9" t="s">
         <v>34</v>
@@ -12482,7 +12448,7 @@
     </row>
     <row r="553" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G553" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I553" s="9" t="s">
         <v>34</v>
@@ -12493,7 +12459,7 @@
     </row>
     <row r="554" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G554" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I554" s="9" t="s">
         <v>34</v>
@@ -12504,7 +12470,7 @@
     </row>
     <row r="555" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G555" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I555" s="9" t="s">
         <v>34</v>
@@ -12515,7 +12481,7 @@
     </row>
     <row r="556" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G556" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I556" s="9" t="s">
         <v>34</v>
@@ -12526,7 +12492,7 @@
     </row>
     <row r="557" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G557" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I557" s="9" t="s">
         <v>34</v>
@@ -12537,7 +12503,7 @@
     </row>
     <row r="558" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G558" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I558" s="9" t="s">
         <v>34</v>
@@ -12548,7 +12514,7 @@
     </row>
     <row r="559" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G559" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I559" s="9" t="s">
         <v>34</v>
@@ -12559,7 +12525,7 @@
     </row>
     <row r="560" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G560" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I560" s="9" t="s">
         <v>34</v>
@@ -12570,7 +12536,7 @@
     </row>
     <row r="561" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G561" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I561" s="9" t="s">
         <v>34</v>
@@ -12581,7 +12547,7 @@
     </row>
     <row r="562" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G562" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I562" s="9" t="s">
         <v>34</v>
@@ -12592,7 +12558,7 @@
     </row>
     <row r="563" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G563" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I563" s="9" t="s">
         <v>34</v>
@@ -12603,7 +12569,7 @@
     </row>
     <row r="564" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G564" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I564" s="9" t="s">
         <v>34</v>
@@ -12614,7 +12580,7 @@
     </row>
     <row r="565" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G565" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I565" s="9" t="s">
         <v>34</v>
@@ -12625,7 +12591,7 @@
     </row>
     <row r="566" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G566" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I566" s="9" t="s">
         <v>34</v>
@@ -12636,7 +12602,7 @@
     </row>
     <row r="567" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G567" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I567" s="9" t="s">
         <v>34</v>
@@ -12647,7 +12613,7 @@
     </row>
     <row r="568" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G568" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I568" s="9" t="s">
         <v>34</v>
@@ -12658,7 +12624,7 @@
     </row>
     <row r="569" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G569" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I569" s="9" t="s">
         <v>34</v>
@@ -12669,7 +12635,7 @@
     </row>
     <row r="570" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G570" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I570" s="9" t="s">
         <v>34</v>
@@ -12680,7 +12646,7 @@
     </row>
     <row r="571" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G571" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I571" s="9" t="s">
         <v>34</v>
@@ -12691,7 +12657,7 @@
     </row>
     <row r="572" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G572" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I572" s="9" t="s">
         <v>34</v>
@@ -12702,7 +12668,7 @@
     </row>
     <row r="573" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G573" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I573" s="9" t="s">
         <v>34</v>
@@ -12713,7 +12679,7 @@
     </row>
     <row r="574" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G574" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I574" s="9" t="s">
         <v>34</v>
@@ -12724,7 +12690,7 @@
     </row>
     <row r="575" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G575" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I575" s="9" t="s">
         <v>34</v>
@@ -12735,7 +12701,7 @@
     </row>
     <row r="576" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G576" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I576" s="9" t="s">
         <v>34</v>
@@ -12746,7 +12712,7 @@
     </row>
     <row r="577" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G577" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I577" s="9" t="s">
         <v>34</v>
@@ -12757,7 +12723,7 @@
     </row>
     <row r="578" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G578" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I578" s="9" t="s">
         <v>34</v>
@@ -12768,7 +12734,7 @@
     </row>
     <row r="579" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G579" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I579" s="9" t="s">
         <v>34</v>
@@ -12779,7 +12745,7 @@
     </row>
     <row r="580" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G580" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I580" s="9" t="s">
         <v>34</v>
@@ -12790,7 +12756,7 @@
     </row>
     <row r="581" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G581" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I581" s="9" t="s">
         <v>34</v>
@@ -12801,7 +12767,7 @@
     </row>
     <row r="582" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G582" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I582" s="9" t="s">
         <v>34</v>
@@ -12812,7 +12778,7 @@
     </row>
     <row r="583" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G583" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I583" s="9" t="s">
         <v>34</v>
@@ -12823,7 +12789,7 @@
     </row>
     <row r="584" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G584" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I584" s="9" t="s">
         <v>34</v>
@@ -12834,7 +12800,7 @@
     </row>
     <row r="585" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G585" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I585" s="9" t="s">
         <v>34</v>
@@ -12845,7 +12811,7 @@
     </row>
     <row r="586" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G586" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I586" s="9" t="s">
         <v>34</v>
@@ -12856,7 +12822,7 @@
     </row>
     <row r="587" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G587" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I587" s="9" t="s">
         <v>34</v>
@@ -12867,7 +12833,7 @@
     </row>
     <row r="588" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G588" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I588" s="9" t="s">
         <v>34</v>
@@ -12878,7 +12844,7 @@
     </row>
     <row r="589" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G589" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I589" s="9" t="s">
         <v>34</v>
@@ -12889,7 +12855,7 @@
     </row>
     <row r="590" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G590" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I590" s="9" t="s">
         <v>34</v>
@@ -12900,7 +12866,7 @@
     </row>
     <row r="591" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G591" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I591" s="9" t="s">
         <v>34</v>
@@ -12911,7 +12877,7 @@
     </row>
     <row r="592" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G592" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I592" s="9" t="s">
         <v>34</v>
@@ -12922,7 +12888,7 @@
     </row>
     <row r="593" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G593" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I593" s="9" t="s">
         <v>34</v>
@@ -12933,7 +12899,7 @@
     </row>
     <row r="594" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G594" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I594" s="9" t="s">
         <v>34</v>
@@ -12944,7 +12910,7 @@
     </row>
     <row r="595" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G595" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I595" s="9" t="s">
         <v>34</v>
@@ -12955,7 +12921,7 @@
     </row>
     <row r="596" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G596" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I596" s="9" t="s">
         <v>34</v>
@@ -12966,7 +12932,7 @@
     </row>
     <row r="597" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G597" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I597" s="9" t="s">
         <v>34</v>
@@ -12977,7 +12943,7 @@
     </row>
     <row r="598" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G598" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I598" s="9" t="s">
         <v>34</v>
@@ -12988,7 +12954,7 @@
     </row>
     <row r="599" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G599" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I599" s="9" t="s">
         <v>34</v>
@@ -12999,7 +12965,7 @@
     </row>
     <row r="600" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G600" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I600" s="9" t="s">
         <v>34</v>
@@ -13010,7 +12976,7 @@
     </row>
     <row r="601" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G601" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I601" s="9" t="s">
         <v>34</v>
@@ -13021,7 +12987,7 @@
     </row>
     <row r="602" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G602" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I602" s="9" t="s">
         <v>34</v>
@@ -13032,7 +12998,7 @@
     </row>
     <row r="603" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G603" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I603" s="9" t="s">
         <v>34</v>
@@ -13043,7 +13009,7 @@
     </row>
     <row r="604" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G604" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I604" s="9" t="s">
         <v>34</v>
@@ -13054,7 +13020,7 @@
     </row>
     <row r="605" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G605" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I605" s="9" t="s">
         <v>34</v>
@@ -13065,7 +13031,7 @@
     </row>
     <row r="606" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G606" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I606" s="9" t="s">
         <v>34</v>
@@ -13076,7 +13042,7 @@
     </row>
     <row r="607" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G607" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I607" s="9" t="s">
         <v>34</v>
@@ -13087,7 +13053,7 @@
     </row>
     <row r="608" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G608" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I608" s="9" t="s">
         <v>34</v>
@@ -13098,7 +13064,7 @@
     </row>
     <row r="609" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G609" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I609" s="9" t="s">
         <v>34</v>
@@ -13109,7 +13075,7 @@
     </row>
     <row r="610" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G610" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I610" s="9" t="s">
         <v>34</v>
@@ -13120,7 +13086,7 @@
     </row>
     <row r="611" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G611" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I611" s="9" t="s">
         <v>34</v>
@@ -13131,7 +13097,7 @@
     </row>
     <row r="612" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G612" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I612" s="9" t="s">
         <v>34</v>
@@ -13142,7 +13108,7 @@
     </row>
     <row r="613" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G613" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I613" s="9" t="s">
         <v>34</v>
@@ -13153,7 +13119,7 @@
     </row>
     <row r="614" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G614" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I614" s="9" t="s">
         <v>34</v>
@@ -13164,7 +13130,7 @@
     </row>
     <row r="615" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G615" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I615" s="9" t="s">
         <v>34</v>
@@ -13175,7 +13141,7 @@
     </row>
     <row r="616" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G616" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I616" s="9" t="s">
         <v>34</v>
@@ -13186,7 +13152,7 @@
     </row>
     <row r="617" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G617" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I617" s="9" t="s">
         <v>34</v>
@@ -13197,7 +13163,7 @@
     </row>
     <row r="618" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G618" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I618" s="9" t="s">
         <v>34</v>
@@ -13208,7 +13174,7 @@
     </row>
     <row r="619" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G619" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I619" s="9" t="s">
         <v>34</v>
@@ -13219,7 +13185,7 @@
     </row>
     <row r="620" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G620" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I620" s="9" t="s">
         <v>34</v>
@@ -13230,7 +13196,7 @@
     </row>
     <row r="621" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G621" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I621" s="9" t="s">
         <v>34</v>
@@ -13241,7 +13207,7 @@
     </row>
     <row r="622" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G622" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I622" s="9" t="s">
         <v>34</v>
@@ -13252,7 +13218,7 @@
     </row>
     <row r="623" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G623" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I623" s="9" t="s">
         <v>34</v>
@@ -13263,7 +13229,7 @@
     </row>
     <row r="624" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G624" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I624" s="9" t="s">
         <v>34</v>
@@ -13274,7 +13240,7 @@
     </row>
     <row r="625" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G625" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I625" s="9" t="s">
         <v>34</v>
@@ -13285,7 +13251,7 @@
     </row>
     <row r="626" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G626" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I626" s="9" t="s">
         <v>34</v>
@@ -13296,7 +13262,7 @@
     </row>
     <row r="627" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G627" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I627" s="9" t="s">
         <v>34</v>
@@ -13307,7 +13273,7 @@
     </row>
     <row r="628" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G628" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I628" s="9" t="s">
         <v>34</v>
@@ -13318,7 +13284,7 @@
     </row>
     <row r="629" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G629" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I629" s="9" t="s">
         <v>34</v>
@@ -13329,7 +13295,7 @@
     </row>
     <row r="630" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G630" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I630" s="9" t="s">
         <v>34</v>
@@ -13340,7 +13306,7 @@
     </row>
     <row r="631" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G631" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I631" s="9" t="s">
         <v>34</v>
@@ -13351,7 +13317,7 @@
     </row>
     <row r="632" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G632" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I632" s="9" t="s">
         <v>34</v>
@@ -13362,7 +13328,7 @@
     </row>
     <row r="633" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G633" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I633" s="9" t="s">
         <v>34</v>
@@ -13373,7 +13339,7 @@
     </row>
     <row r="634" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G634" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I634" s="9" t="s">
         <v>34</v>
@@ -13384,7 +13350,7 @@
     </row>
     <row r="635" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G635" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I635" s="9" t="s">
         <v>34</v>
@@ -13395,7 +13361,7 @@
     </row>
     <row r="636" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G636" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I636" s="9" t="s">
         <v>34</v>
@@ -13406,7 +13372,7 @@
     </row>
     <row r="637" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G637" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I637" s="9" t="s">
         <v>34</v>
@@ -13417,7 +13383,7 @@
     </row>
     <row r="638" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G638" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I638" s="9" t="s">
         <v>34</v>
@@ -13428,7 +13394,7 @@
     </row>
     <row r="639" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G639" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I639" s="9" t="s">
         <v>34</v>
@@ -13439,7 +13405,7 @@
     </row>
     <row r="640" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G640" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I640" s="9" t="s">
         <v>34</v>
@@ -13450,7 +13416,7 @@
     </row>
     <row r="641" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G641" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I641" s="9" t="s">
         <v>34</v>
@@ -13461,7 +13427,7 @@
     </row>
     <row r="642" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G642" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I642" s="9" t="s">
         <v>34</v>
@@ -13472,7 +13438,7 @@
     </row>
     <row r="643" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G643" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I643" s="9" t="s">
         <v>34</v>
@@ -13483,7 +13449,7 @@
     </row>
     <row r="644" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G644" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I644" s="9" t="s">
         <v>34</v>
@@ -13494,7 +13460,7 @@
     </row>
     <row r="645" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G645" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I645" s="9" t="s">
         <v>34</v>
@@ -13505,7 +13471,7 @@
     </row>
     <row r="646" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G646" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I646" s="9" t="s">
         <v>34</v>
@@ -13516,7 +13482,7 @@
     </row>
     <row r="647" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G647" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I647" s="9" t="s">
         <v>34</v>
@@ -13527,7 +13493,7 @@
     </row>
     <row r="648" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G648" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I648" s="9" t="s">
         <v>34</v>
@@ -13538,7 +13504,7 @@
     </row>
     <row r="649" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G649" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I649" s="9" t="s">
         <v>34</v>
@@ -13549,7 +13515,7 @@
     </row>
     <row r="650" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G650" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I650" s="9" t="s">
         <v>34</v>
@@ -13560,7 +13526,7 @@
     </row>
     <row r="651" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G651" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I651" s="9" t="s">
         <v>34</v>
@@ -13571,7 +13537,7 @@
     </row>
     <row r="652" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G652" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I652" s="9" t="s">
         <v>34</v>
@@ -13582,7 +13548,7 @@
     </row>
     <row r="653" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G653" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I653" s="9" t="s">
         <v>34</v>
@@ -13593,7 +13559,7 @@
     </row>
     <row r="654" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G654" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I654" s="9" t="s">
         <v>34</v>
@@ -13604,7 +13570,7 @@
     </row>
     <row r="655" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G655" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I655" s="9" t="s">
         <v>34</v>
@@ -13615,7 +13581,7 @@
     </row>
     <row r="656" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G656" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I656" s="9" t="s">
         <v>34</v>
@@ -13626,7 +13592,7 @@
     </row>
     <row r="657" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G657" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I657" s="9" t="s">
         <v>34</v>
@@ -13637,7 +13603,7 @@
     </row>
     <row r="658" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G658" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I658" s="9" t="s">
         <v>34</v>
@@ -13648,7 +13614,7 @@
     </row>
     <row r="659" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G659" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I659" s="9" t="s">
         <v>34</v>
@@ -13659,7 +13625,7 @@
     </row>
     <row r="660" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G660" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I660" s="9" t="s">
         <v>34</v>
@@ -13670,7 +13636,7 @@
     </row>
     <row r="661" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G661" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I661" s="9" t="s">
         <v>34</v>
@@ -13681,7 +13647,7 @@
     </row>
     <row r="662" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G662" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I662" s="9" t="s">
         <v>34</v>
@@ -13692,7 +13658,7 @@
     </row>
     <row r="663" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G663" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I663" s="9" t="s">
         <v>34</v>
@@ -13703,7 +13669,7 @@
     </row>
     <row r="664" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G664" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I664" s="9" t="s">
         <v>34</v>
@@ -13714,7 +13680,7 @@
     </row>
     <row r="665" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G665" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I665" s="9" t="s">
         <v>34</v>
@@ -13725,7 +13691,7 @@
     </row>
     <row r="666" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G666" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I666" s="9" t="s">
         <v>34</v>
@@ -13736,7 +13702,7 @@
     </row>
     <row r="667" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G667" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I667" s="9" t="s">
         <v>34</v>
@@ -13747,7 +13713,7 @@
     </row>
     <row r="668" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G668" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I668" s="9" t="s">
         <v>34</v>
@@ -13758,7 +13724,7 @@
     </row>
     <row r="669" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G669" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I669" s="9" t="s">
         <v>34</v>
@@ -13769,7 +13735,7 @@
     </row>
     <row r="670" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G670" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I670" s="9" t="s">
         <v>34</v>
@@ -13780,7 +13746,7 @@
     </row>
     <row r="671" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G671" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I671" s="9" t="s">
         <v>34</v>
@@ -13791,7 +13757,7 @@
     </row>
     <row r="672" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G672" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I672" s="9" t="s">
         <v>34</v>
@@ -13802,7 +13768,7 @@
     </row>
     <row r="673" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G673" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I673" s="9" t="s">
         <v>34</v>
@@ -13813,7 +13779,7 @@
     </row>
     <row r="674" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G674" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I674" s="9" t="s">
         <v>34</v>
@@ -13824,7 +13790,7 @@
     </row>
     <row r="675" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G675" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I675" s="9" t="s">
         <v>34</v>
@@ -13835,7 +13801,7 @@
     </row>
     <row r="676" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G676" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I676" s="9" t="s">
         <v>34</v>
@@ -13846,7 +13812,7 @@
     </row>
     <row r="677" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G677" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I677" s="9" t="s">
         <v>34</v>
@@ -13857,7 +13823,7 @@
     </row>
     <row r="678" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G678" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I678" s="9" t="s">
         <v>34</v>
@@ -13868,7 +13834,7 @@
     </row>
     <row r="679" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G679" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I679" s="9" t="s">
         <v>34</v>
@@ -13879,7 +13845,7 @@
     </row>
     <row r="680" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G680" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I680" s="9" t="s">
         <v>34</v>
@@ -13890,7 +13856,7 @@
     </row>
     <row r="681" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G681" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I681" s="9" t="s">
         <v>34</v>
@@ -13901,7 +13867,7 @@
     </row>
     <row r="682" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G682" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I682" s="9" t="s">
         <v>34</v>
@@ -13912,7 +13878,7 @@
     </row>
     <row r="683" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G683" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I683" s="9" t="s">
         <v>34</v>
@@ -13923,7 +13889,7 @@
     </row>
     <row r="684" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G684" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I684" s="9" t="s">
         <v>34</v>
@@ -13934,7 +13900,7 @@
     </row>
     <row r="685" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G685" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I685" s="9" t="s">
         <v>34</v>
@@ -13945,7 +13911,7 @@
     </row>
     <row r="686" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G686" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I686" s="9" t="s">
         <v>34</v>
@@ -13956,7 +13922,7 @@
     </row>
     <row r="687" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G687" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I687" s="9" t="s">
         <v>34</v>
@@ -13967,7 +13933,7 @@
     </row>
     <row r="688" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G688" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I688" s="9" t="s">
         <v>34</v>
@@ -13978,7 +13944,7 @@
     </row>
     <row r="689" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G689" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I689" s="9" t="s">
         <v>34</v>
@@ -13989,7 +13955,7 @@
     </row>
     <row r="690" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G690" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I690" s="9" t="s">
         <v>34</v>
@@ -14000,7 +13966,7 @@
     </row>
     <row r="691" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G691" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I691" s="9" t="s">
         <v>34</v>
@@ -14011,7 +13977,7 @@
     </row>
     <row r="692" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G692" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I692" s="9" t="s">
         <v>34</v>
@@ -14022,7 +13988,7 @@
     </row>
     <row r="693" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G693" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I693" s="9" t="s">
         <v>34</v>
@@ -14033,7 +13999,7 @@
     </row>
     <row r="694" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G694" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I694" s="9" t="s">
         <v>34</v>
@@ -14044,7 +14010,7 @@
     </row>
     <row r="695" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G695" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I695" s="9" t="s">
         <v>34</v>
@@ -14055,7 +14021,7 @@
     </row>
     <row r="696" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G696" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I696" s="9" t="s">
         <v>34</v>
@@ -14066,7 +14032,7 @@
     </row>
     <row r="697" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G697" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I697" s="9" t="s">
         <v>34</v>
@@ -14077,7 +14043,7 @@
     </row>
     <row r="698" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G698" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I698" s="9" t="s">
         <v>34</v>
@@ -14088,7 +14054,7 @@
     </row>
     <row r="699" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G699" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I699" s="9" t="s">
         <v>34</v>
@@ -14099,7 +14065,7 @@
     </row>
     <row r="700" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G700" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I700" s="9" t="s">
         <v>34</v>
@@ -14110,7 +14076,7 @@
     </row>
     <row r="701" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G701" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I701" s="9" t="s">
         <v>34</v>
@@ -14121,7 +14087,7 @@
     </row>
     <row r="702" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G702" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I702" s="9" t="s">
         <v>34</v>
@@ -14132,7 +14098,7 @@
     </row>
     <row r="703" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G703" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I703" s="9" t="s">
         <v>34</v>
@@ -14143,7 +14109,7 @@
     </row>
     <row r="704" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G704" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I704" s="9" t="s">
         <v>34</v>
@@ -14154,7 +14120,7 @@
     </row>
     <row r="705" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G705" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I705" s="9" t="s">
         <v>34</v>
@@ -14165,7 +14131,7 @@
     </row>
     <row r="706" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G706" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I706" s="9" t="s">
         <v>34</v>
@@ -14176,7 +14142,7 @@
     </row>
     <row r="707" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G707" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I707" s="9" t="s">
         <v>34</v>
@@ -14187,7 +14153,7 @@
     </row>
     <row r="708" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G708" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I708" s="9" t="s">
         <v>34</v>
@@ -14198,7 +14164,7 @@
     </row>
     <row r="709" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G709" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I709" s="9" t="s">
         <v>34</v>
@@ -14209,7 +14175,7 @@
     </row>
     <row r="710" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G710" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I710" s="9" t="s">
         <v>34</v>
@@ -14220,7 +14186,7 @@
     </row>
     <row r="711" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G711" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I711" s="9" t="s">
         <v>34</v>
@@ -14231,7 +14197,7 @@
     </row>
     <row r="712" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G712" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I712" s="9" t="s">
         <v>34</v>
@@ -14242,7 +14208,7 @@
     </row>
     <row r="713" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G713" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I713" s="9" t="s">
         <v>34</v>
@@ -14253,7 +14219,7 @@
     </row>
     <row r="714" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G714" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I714" s="9" t="s">
         <v>34</v>
@@ -14264,7 +14230,7 @@
     </row>
     <row r="715" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G715" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I715" s="9" t="s">
         <v>34</v>
@@ -14275,7 +14241,7 @@
     </row>
     <row r="716" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G716" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I716" s="9" t="s">
         <v>34</v>
@@ -14286,7 +14252,7 @@
     </row>
     <row r="717" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G717" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I717" s="9" t="s">
         <v>34</v>
@@ -14297,7 +14263,7 @@
     </row>
     <row r="718" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G718" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I718" s="9" t="s">
         <v>34</v>
@@ -14308,7 +14274,7 @@
     </row>
     <row r="719" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G719" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I719" s="9" t="s">
         <v>34</v>
@@ -14319,7 +14285,7 @@
     </row>
     <row r="720" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G720" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I720" s="9" t="s">
         <v>34</v>
@@ -14330,7 +14296,7 @@
     </row>
     <row r="721" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G721" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I721" s="9" t="s">
         <v>34</v>
@@ -14341,7 +14307,7 @@
     </row>
     <row r="722" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G722" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I722" s="9" t="s">
         <v>34</v>
@@ -14352,7 +14318,7 @@
     </row>
     <row r="723" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G723" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I723" s="9" t="s">
         <v>34</v>
@@ -14363,7 +14329,7 @@
     </row>
     <row r="724" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G724" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I724" s="9" t="s">
         <v>34</v>
@@ -14374,7 +14340,7 @@
     </row>
     <row r="725" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G725" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I725" s="9" t="s">
         <v>34</v>
@@ -14385,7 +14351,7 @@
     </row>
     <row r="726" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G726" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I726" s="9" t="s">
         <v>34</v>
@@ -14396,7 +14362,7 @@
     </row>
     <row r="727" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G727" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I727" s="9" t="s">
         <v>34</v>
@@ -14407,7 +14373,7 @@
     </row>
     <row r="728" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G728" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I728" s="9" t="s">
         <v>34</v>
@@ -14418,7 +14384,7 @@
     </row>
     <row r="729" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G729" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I729" s="9" t="s">
         <v>34</v>
@@ -14429,7 +14395,7 @@
     </row>
     <row r="730" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G730" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I730" s="9" t="s">
         <v>34</v>
@@ -14440,7 +14406,7 @@
     </row>
     <row r="731" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G731" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I731" s="9" t="s">
         <v>34</v>
@@ -14451,7 +14417,7 @@
     </row>
     <row r="732" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G732" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I732" s="9" t="s">
         <v>34</v>
@@ -14462,7 +14428,7 @@
     </row>
     <row r="733" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G733" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I733" s="9" t="s">
         <v>34</v>
@@ -14473,7 +14439,7 @@
     </row>
     <row r="734" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G734" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I734" s="9" t="s">
         <v>34</v>
@@ -14484,7 +14450,7 @@
     </row>
     <row r="735" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G735" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I735" s="9" t="s">
         <v>34</v>
@@ -14495,7 +14461,7 @@
     </row>
     <row r="736" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G736" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I736" s="9" t="s">
         <v>34</v>
@@ -14506,7 +14472,7 @@
     </row>
     <row r="737" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G737" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I737" s="9" t="s">
         <v>34</v>
@@ -14517,7 +14483,7 @@
     </row>
     <row r="738" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G738" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I738" s="9" t="s">
         <v>34</v>
@@ -14528,7 +14494,7 @@
     </row>
     <row r="739" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G739" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I739" s="9" t="s">
         <v>34</v>
@@ -14539,7 +14505,7 @@
     </row>
     <row r="740" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G740" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I740" s="9" t="s">
         <v>34</v>
@@ -14550,7 +14516,7 @@
     </row>
     <row r="741" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G741" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I741" s="9" t="s">
         <v>34</v>
@@ -14561,7 +14527,7 @@
     </row>
     <row r="742" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G742" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I742" s="9" t="s">
         <v>34</v>
@@ -14572,7 +14538,7 @@
     </row>
     <row r="743" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G743" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I743" s="9" t="s">
         <v>34</v>
@@ -14583,7 +14549,7 @@
     </row>
     <row r="744" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G744" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I744" s="9" t="s">
         <v>34</v>
@@ -14594,7 +14560,7 @@
     </row>
     <row r="745" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G745" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I745" s="9" t="s">
         <v>34</v>
@@ -14605,7 +14571,7 @@
     </row>
     <row r="746" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G746" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I746" s="9" t="s">
         <v>34</v>
@@ -14616,7 +14582,7 @@
     </row>
     <row r="747" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G747" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I747" s="9" t="s">
         <v>34</v>
@@ -14627,7 +14593,7 @@
     </row>
     <row r="748" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G748" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I748" s="9" t="s">
         <v>34</v>
@@ -14638,7 +14604,7 @@
     </row>
     <row r="749" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G749" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I749" s="9" t="s">
         <v>34</v>
@@ -14649,7 +14615,7 @@
     </row>
     <row r="750" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G750" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I750" s="9" t="s">
         <v>34</v>
@@ -14660,7 +14626,7 @@
     </row>
     <row r="751" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G751" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I751" s="9" t="s">
         <v>34</v>
@@ -14671,7 +14637,7 @@
     </row>
     <row r="752" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G752" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I752" s="9" t="s">
         <v>34</v>
@@ -14682,7 +14648,7 @@
     </row>
     <row r="753" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G753" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I753" s="9" t="s">
         <v>34</v>
@@ -14693,7 +14659,7 @@
     </row>
     <row r="754" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G754" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I754" s="9" t="s">
         <v>34</v>
@@ -14704,7 +14670,7 @@
     </row>
     <row r="755" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G755" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I755" s="9" t="s">
         <v>34</v>
@@ -14715,7 +14681,7 @@
     </row>
     <row r="756" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G756" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I756" s="9" t="s">
         <v>34</v>
@@ -14726,7 +14692,7 @@
     </row>
     <row r="757" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G757" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I757" s="9" t="s">
         <v>34</v>
@@ -14737,7 +14703,7 @@
     </row>
     <row r="758" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G758" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I758" s="9" t="s">
         <v>34</v>
@@ -14748,7 +14714,7 @@
     </row>
     <row r="759" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G759" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I759" s="9" t="s">
         <v>34</v>
@@ -14759,7 +14725,7 @@
     </row>
     <row r="760" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G760" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I760" s="9" t="s">
         <v>34</v>
@@ -14770,7 +14736,7 @@
     </row>
     <row r="761" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G761" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I761" s="9" t="s">
         <v>34</v>
@@ -14781,7 +14747,7 @@
     </row>
     <row r="762" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G762" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I762" s="9" t="s">
         <v>34</v>
@@ -14792,7 +14758,7 @@
     </row>
     <row r="763" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G763" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I763" s="9" t="s">
         <v>34</v>
@@ -14803,7 +14769,7 @@
     </row>
     <row r="764" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G764" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I764" s="9" t="s">
         <v>34</v>
@@ -14814,7 +14780,7 @@
     </row>
     <row r="765" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G765" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I765" s="9" t="s">
         <v>34</v>
@@ -14825,7 +14791,7 @@
     </row>
     <row r="766" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G766" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I766" s="9" t="s">
         <v>34</v>
@@ -14836,7 +14802,7 @@
     </row>
     <row r="767" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G767" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I767" s="9" t="s">
         <v>34</v>
@@ -14847,7 +14813,7 @@
     </row>
     <row r="768" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G768" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I768" s="9" t="s">
         <v>34</v>
@@ -14858,7 +14824,7 @@
     </row>
     <row r="769" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G769" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I769" s="9" t="s">
         <v>34</v>
@@ -14869,7 +14835,7 @@
     </row>
     <row r="770" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G770" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I770" s="9" t="s">
         <v>34</v>
@@ -14880,7 +14846,7 @@
     </row>
     <row r="771" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G771" s="9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I771" s="9" t="s">
         <v>34</v>
@@ -14891,7 +14857,7 @@
     </row>
     <row r="772" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G772" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I772" s="9" t="s">
         <v>34</v>
@@ -14902,7 +14868,7 @@
     </row>
     <row r="773" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G773" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I773" s="9" t="s">
         <v>34</v>
@@ -14913,7 +14879,7 @@
     </row>
     <row r="774" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G774" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I774" s="9" t="s">
         <v>34</v>
@@ -14924,7 +14890,7 @@
     </row>
     <row r="775" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G775" s="9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I775" s="9" t="s">
         <v>34</v>
@@ -14935,7 +14901,7 @@
     </row>
     <row r="776" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G776" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I776" s="9" t="s">
         <v>34</v>
@@ -14946,7 +14912,7 @@
     </row>
     <row r="777" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G777" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I777" s="9" t="s">
         <v>34</v>
@@ -14957,7 +14923,7 @@
     </row>
     <row r="778" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G778" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I778" s="9" t="s">
         <v>34</v>
@@ -14968,7 +14934,7 @@
     </row>
     <row r="779" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G779" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I779" s="9" t="s">
         <v>34</v>
@@ -14979,7 +14945,7 @@
     </row>
     <row r="780" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G780" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I780" s="9" t="s">
         <v>34</v>
@@ -14990,7 +14956,7 @@
     </row>
     <row r="781" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G781" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I781" s="9" t="s">
         <v>34</v>
@@ -15001,7 +14967,7 @@
     </row>
     <row r="782" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G782" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I782" s="9" t="s">
         <v>34</v>
@@ -15012,7 +14978,7 @@
     </row>
     <row r="783" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G783" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I783" s="9" t="s">
         <v>34</v>
@@ -15023,7 +14989,7 @@
     </row>
     <row r="784" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G784" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I784" s="9" t="s">
         <v>34</v>
@@ -15034,7 +15000,7 @@
     </row>
     <row r="785" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G785" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I785" s="9" t="s">
         <v>34</v>
@@ -15045,7 +15011,7 @@
     </row>
     <row r="786" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G786" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I786" s="9" t="s">
         <v>34</v>
@@ -15056,7 +15022,7 @@
     </row>
     <row r="787" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G787" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I787" s="9" t="s">
         <v>34</v>
@@ -15067,7 +15033,7 @@
     </row>
     <row r="788" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G788" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I788" s="9" t="s">
         <v>34</v>
@@ -15078,7 +15044,7 @@
     </row>
     <row r="789" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G789" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I789" s="9" t="s">
         <v>34</v>
@@ -15089,7 +15055,7 @@
     </row>
     <row r="790" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G790" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I790" s="9" t="s">
         <v>34</v>
@@ -15100,7 +15066,7 @@
     </row>
     <row r="791" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G791" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I791" s="9" t="s">
         <v>34</v>
@@ -15111,7 +15077,7 @@
     </row>
     <row r="792" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G792" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I792" s="9" t="s">
         <v>34</v>
@@ -15122,7 +15088,7 @@
     </row>
     <row r="793" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G793" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I793" s="9" t="s">
         <v>34</v>
@@ -15133,7 +15099,7 @@
     </row>
     <row r="794" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G794" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I794" s="9" t="s">
         <v>34</v>
@@ -15144,7 +15110,7 @@
     </row>
     <row r="795" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G795" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I795" s="9" t="s">
         <v>34</v>
@@ -15155,7 +15121,7 @@
     </row>
     <row r="796" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G796" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I796" s="9" t="s">
         <v>34</v>
@@ -15166,7 +15132,7 @@
     </row>
     <row r="797" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G797" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I797" s="9" t="s">
         <v>34</v>
@@ -15177,7 +15143,7 @@
     </row>
     <row r="798" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G798" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I798" s="9" t="s">
         <v>34</v>
@@ -15188,7 +15154,7 @@
     </row>
     <row r="799" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G799" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I799" s="9" t="s">
         <v>34</v>
@@ -15199,7 +15165,7 @@
     </row>
     <row r="800" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G800" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I800" s="9" t="s">
         <v>34</v>
@@ -15210,7 +15176,7 @@
     </row>
     <row r="801" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G801" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I801" s="9" t="s">
         <v>34</v>
@@ -15221,7 +15187,7 @@
     </row>
     <row r="802" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G802" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I802" s="9" t="s">
         <v>34</v>
@@ -15232,7 +15198,7 @@
     </row>
     <row r="803" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G803" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I803" s="9" t="s">
         <v>34</v>
@@ -15243,7 +15209,7 @@
     </row>
     <row r="804" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G804" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I804" s="9" t="s">
         <v>34</v>
@@ -15254,7 +15220,7 @@
     </row>
     <row r="805" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G805" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I805" s="9" t="s">
         <v>34</v>
@@ -15265,7 +15231,7 @@
     </row>
     <row r="806" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G806" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I806" s="9" t="s">
         <v>34</v>
@@ -15276,7 +15242,7 @@
     </row>
     <row r="807" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G807" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I807" s="9" t="s">
         <v>34</v>
@@ -15287,7 +15253,7 @@
     </row>
     <row r="808" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G808" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I808" s="9" t="s">
         <v>34</v>
@@ -15298,7 +15264,7 @@
     </row>
     <row r="809" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G809" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I809" s="9" t="s">
         <v>34</v>
@@ -15309,7 +15275,7 @@
     </row>
     <row r="810" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G810" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I810" s="9" t="s">
         <v>34</v>
@@ -15320,7 +15286,7 @@
     </row>
     <row r="811" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G811" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I811" s="9" t="s">
         <v>34</v>
@@ -15331,7 +15297,7 @@
     </row>
     <row r="812" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G812" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I812" s="9" t="s">
         <v>34</v>
@@ -15342,7 +15308,7 @@
     </row>
     <row r="813" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G813" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I813" s="9" t="s">
         <v>34</v>
@@ -15353,7 +15319,7 @@
     </row>
     <row r="814" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G814" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I814" s="9" t="s">
         <v>34</v>
@@ -15364,7 +15330,7 @@
     </row>
     <row r="815" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G815" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I815" s="9" t="s">
         <v>34</v>
@@ -15375,7 +15341,7 @@
     </row>
     <row r="816" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G816" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I816" s="9" t="s">
         <v>34</v>
@@ -15386,7 +15352,7 @@
     </row>
     <row r="817" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G817" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I817" s="9" t="s">
         <v>34</v>
@@ -15397,7 +15363,7 @@
     </row>
     <row r="818" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G818" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I818" s="9" t="s">
         <v>34</v>
@@ -15408,7 +15374,7 @@
     </row>
     <row r="819" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G819" s="9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I819" s="9" t="s">
         <v>34</v>
@@ -15419,7 +15385,7 @@
     </row>
     <row r="820" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G820" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I820" s="9" t="s">
         <v>34</v>
@@ -15430,7 +15396,7 @@
     </row>
     <row r="821" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G821" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I821" s="9" t="s">
         <v>34</v>
@@ -15441,7 +15407,7 @@
     </row>
     <row r="822" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G822" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I822" s="9" t="s">
         <v>34</v>
@@ -15452,7 +15418,7 @@
     </row>
     <row r="823" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G823" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I823" s="9" t="s">
         <v>34</v>
@@ -15463,7 +15429,7 @@
     </row>
     <row r="824" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G824" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I824" s="9" t="s">
         <v>34</v>
@@ -15474,7 +15440,7 @@
     </row>
     <row r="825" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G825" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I825" s="9" t="s">
         <v>34</v>
@@ -15485,7 +15451,7 @@
     </row>
     <row r="826" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G826" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I826" s="9" t="s">
         <v>34</v>
@@ -15496,7 +15462,7 @@
     </row>
     <row r="827" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G827" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I827" s="9" t="s">
         <v>34</v>
@@ -15507,7 +15473,7 @@
     </row>
     <row r="828" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G828" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I828" s="9" t="s">
         <v>34</v>
@@ -15518,7 +15484,7 @@
     </row>
     <row r="829" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G829" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I829" s="9" t="s">
         <v>34</v>
@@ -15529,7 +15495,7 @@
     </row>
     <row r="830" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G830" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I830" s="9" t="s">
         <v>34</v>
@@ -15540,7 +15506,7 @@
     </row>
     <row r="831" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G831" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I831" s="9" t="s">
         <v>34</v>
@@ -15551,7 +15517,7 @@
     </row>
     <row r="832" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G832" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I832" s="9" t="s">
         <v>34</v>
@@ -15562,7 +15528,7 @@
     </row>
     <row r="833" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G833" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I833" s="9" t="s">
         <v>34</v>
@@ -15573,7 +15539,7 @@
     </row>
     <row r="834" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G834" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I834" s="9" t="s">
         <v>34</v>
@@ -15584,7 +15550,7 @@
     </row>
     <row r="835" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G835" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I835" s="9" t="s">
         <v>34</v>
@@ -15595,7 +15561,7 @@
     </row>
     <row r="836" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G836" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I836" s="9" t="s">
         <v>34</v>
@@ -15606,7 +15572,7 @@
     </row>
     <row r="837" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G837" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I837" s="9" t="s">
         <v>34</v>
@@ -15617,7 +15583,7 @@
     </row>
     <row r="838" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G838" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I838" s="9" t="s">
         <v>34</v>
@@ -15628,7 +15594,7 @@
     </row>
     <row r="839" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G839" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I839" s="9" t="s">
         <v>34</v>
@@ -15639,7 +15605,7 @@
     </row>
     <row r="840" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G840" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I840" s="9" t="s">
         <v>34</v>
@@ -15650,7 +15616,7 @@
     </row>
     <row r="841" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G841" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I841" s="9" t="s">
         <v>34</v>
@@ -15661,7 +15627,7 @@
     </row>
     <row r="842" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G842" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I842" s="9" t="s">
         <v>34</v>
@@ -15672,7 +15638,7 @@
     </row>
     <row r="843" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G843" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I843" s="9" t="s">
         <v>34</v>
@@ -15683,7 +15649,7 @@
     </row>
     <row r="844" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G844" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I844" s="9" t="s">
         <v>34</v>
@@ -15694,7 +15660,7 @@
     </row>
     <row r="845" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G845" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I845" s="9" t="s">
         <v>34</v>
@@ -15705,7 +15671,7 @@
     </row>
     <row r="846" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G846" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I846" s="9" t="s">
         <v>34</v>
@@ -15716,7 +15682,7 @@
     </row>
     <row r="847" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G847" s="9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I847" s="9" t="s">
         <v>34</v>
@@ -15727,7 +15693,7 @@
     </row>
     <row r="848" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G848" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I848" s="9" t="s">
         <v>34</v>
@@ -15738,7 +15704,7 @@
     </row>
     <row r="849" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G849" s="9" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I849" s="9" t="s">
         <v>34</v>
@@ -15749,7 +15715,7 @@
     </row>
     <row r="850" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G850" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I850" s="9" t="s">
         <v>34</v>
@@ -15760,7 +15726,7 @@
     </row>
     <row r="851" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G851" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I851" s="9" t="s">
         <v>34</v>
@@ -15771,7 +15737,7 @@
     </row>
     <row r="852" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G852" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I852" s="9" t="s">
         <v>34</v>
@@ -15782,7 +15748,7 @@
     </row>
     <row r="853" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G853" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I853" s="9" t="s">
         <v>34</v>
@@ -15793,7 +15759,7 @@
     </row>
     <row r="854" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G854" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I854" s="9" t="s">
         <v>34</v>
@@ -15804,7 +15770,7 @@
     </row>
     <row r="855" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G855" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I855" s="9" t="s">
         <v>34</v>
@@ -15815,7 +15781,7 @@
     </row>
     <row r="856" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G856" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I856" s="9" t="s">
         <v>34</v>
@@ -15826,7 +15792,7 @@
     </row>
     <row r="857" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G857" s="9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I857" s="9" t="s">
         <v>34</v>
@@ -15837,7 +15803,7 @@
     </row>
     <row r="858" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G858" s="9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I858" s="9" t="s">
         <v>34</v>
@@ -15848,7 +15814,7 @@
     </row>
     <row r="859" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G859" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I859" s="9" t="s">
         <v>34</v>
@@ -15859,7 +15825,7 @@
     </row>
     <row r="860" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G860" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I860" s="9" t="s">
         <v>34</v>
@@ -15870,7 +15836,7 @@
     </row>
     <row r="861" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G861" s="9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I861" s="9" t="s">
         <v>34</v>
@@ -15881,7 +15847,7 @@
     </row>
     <row r="862" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G862" s="9" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I862" s="9" t="s">
         <v>34</v>
@@ -15892,7 +15858,7 @@
     </row>
     <row r="863" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G863" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I863" s="9" t="s">
         <v>34</v>
@@ -15903,7 +15869,7 @@
     </row>
     <row r="864" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G864" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I864" s="9" t="s">
         <v>34</v>
@@ -15914,7 +15880,7 @@
     </row>
     <row r="865" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G865" s="9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I865" s="9" t="s">
         <v>34</v>
@@ -15925,7 +15891,7 @@
     </row>
     <row r="866" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G866" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I866" s="9" t="s">
         <v>34</v>
@@ -15936,7 +15902,7 @@
     </row>
     <row r="867" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G867" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I867" s="9" t="s">
         <v>34</v>
@@ -15947,7 +15913,7 @@
     </row>
     <row r="868" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G868" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I868" s="9" t="s">
         <v>34</v>
@@ -15958,7 +15924,7 @@
     </row>
     <row r="869" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G869" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I869" s="9" t="s">
         <v>34</v>
@@ -15969,7 +15935,7 @@
     </row>
     <row r="870" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G870" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I870" s="9" t="s">
         <v>34</v>
@@ -15980,7 +15946,7 @@
     </row>
     <row r="871" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G871" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I871" s="9" t="s">
         <v>34</v>
@@ -15991,7 +15957,7 @@
     </row>
     <row r="872" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G872" s="9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I872" s="9" t="s">
         <v>34</v>
@@ -16002,7 +15968,7 @@
     </row>
     <row r="873" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G873" s="9" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I873" s="9" t="s">
         <v>34</v>
@@ -16013,7 +15979,7 @@
     </row>
     <row r="874" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G874" s="9" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I874" s="9" t="s">
         <v>34</v>
@@ -16024,7 +15990,7 @@
     </row>
     <row r="875" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G875" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I875" s="9" t="s">
         <v>34</v>
@@ -16035,7 +16001,7 @@
     </row>
     <row r="876" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G876" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I876" s="9" t="s">
         <v>34</v>
@@ -16046,7 +16012,7 @@
     </row>
     <row r="877" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G877" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I877" s="9" t="s">
         <v>34</v>
@@ -16057,7 +16023,7 @@
     </row>
     <row r="878" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G878" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I878" s="9" t="s">
         <v>34</v>
@@ -16068,7 +16034,7 @@
     </row>
     <row r="879" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G879" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I879" s="9" t="s">
         <v>34</v>
@@ -16079,7 +16045,7 @@
     </row>
     <row r="880" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G880" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I880" s="9" t="s">
         <v>34</v>
@@ -16090,7 +16056,7 @@
     </row>
     <row r="881" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G881" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I881" s="9" t="s">
         <v>34</v>
@@ -16101,7 +16067,7 @@
     </row>
     <row r="882" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G882" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I882" s="9" t="s">
         <v>34</v>
@@ -16112,7 +16078,7 @@
     </row>
     <row r="883" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G883" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I883" s="9" t="s">
         <v>34</v>
@@ -16123,7 +16089,7 @@
     </row>
     <row r="884" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G884" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I884" s="9" t="s">
         <v>34</v>
@@ -16134,7 +16100,7 @@
     </row>
     <row r="885" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G885" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I885" s="9" t="s">
         <v>34</v>
@@ -16145,7 +16111,7 @@
     </row>
     <row r="886" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G886" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I886" s="9" t="s">
         <v>34</v>
@@ -16156,7 +16122,7 @@
     </row>
     <row r="887" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G887" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I887" s="9" t="s">
         <v>34</v>
@@ -16167,7 +16133,7 @@
     </row>
     <row r="888" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G888" s="9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I888" s="9" t="s">
         <v>34</v>
@@ -16178,7 +16144,7 @@
     </row>
     <row r="889" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G889" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I889" s="9" t="s">
         <v>34</v>
@@ -16189,7 +16155,7 @@
     </row>
     <row r="890" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G890" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I890" s="9" t="s">
         <v>34</v>
@@ -16200,7 +16166,7 @@
     </row>
     <row r="891" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G891" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I891" s="9" t="s">
         <v>34</v>
@@ -16211,7 +16177,7 @@
     </row>
     <row r="892" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G892" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I892" s="9" t="s">
         <v>34</v>
@@ -16222,7 +16188,7 @@
     </row>
     <row r="893" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G893" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I893" s="9" t="s">
         <v>34</v>
@@ -16233,7 +16199,7 @@
     </row>
     <row r="894" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G894" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I894" s="9" t="s">
         <v>34</v>
@@ -16244,7 +16210,7 @@
     </row>
     <row r="895" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G895" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I895" s="9" t="s">
         <v>34</v>
@@ -16255,7 +16221,7 @@
     </row>
     <row r="896" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G896" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I896" s="9" t="s">
         <v>34</v>
@@ -16266,7 +16232,7 @@
     </row>
     <row r="897" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G897" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I897" s="9" t="s">
         <v>34</v>
@@ -16277,7 +16243,7 @@
     </row>
     <row r="898" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G898" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I898" s="9" t="s">
         <v>34</v>
@@ -16288,7 +16254,7 @@
     </row>
     <row r="899" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G899" s="9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I899" s="9" t="s">
         <v>34</v>
@@ -16299,7 +16265,7 @@
     </row>
     <row r="900" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G900" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I900" s="9" t="s">
         <v>34</v>
@@ -16310,7 +16276,7 @@
     </row>
     <row r="901" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G901" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I901" s="9" t="s">
         <v>34</v>
@@ -16321,7 +16287,7 @@
     </row>
     <row r="902" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G902" s="9" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I902" s="9" t="s">
         <v>34</v>
@@ -16332,7 +16298,7 @@
     </row>
     <row r="903" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G903" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I903" s="9" t="s">
         <v>34</v>
@@ -16343,7 +16309,7 @@
     </row>
     <row r="904" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G904" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I904" s="9" t="s">
         <v>34</v>
@@ -16354,7 +16320,7 @@
     </row>
     <row r="905" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G905" s="9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I905" s="9" t="s">
         <v>34</v>
@@ -16365,7 +16331,7 @@
     </row>
     <row r="906" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G906" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I906" s="9" t="s">
         <v>34</v>
@@ -16376,7 +16342,7 @@
     </row>
     <row r="907" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G907" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I907" s="9" t="s">
         <v>34</v>
@@ -16387,7 +16353,7 @@
     </row>
     <row r="908" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G908" s="9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I908" s="9" t="s">
         <v>34</v>
@@ -16398,7 +16364,7 @@
     </row>
     <row r="909" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G909" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I909" s="9" t="s">
         <v>34</v>
@@ -16409,7 +16375,7 @@
     </row>
     <row r="910" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G910" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I910" s="9" t="s">
         <v>34</v>
@@ -16420,7 +16386,7 @@
     </row>
     <row r="911" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G911" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I911" s="9" t="s">
         <v>34</v>
@@ -16431,7 +16397,7 @@
     </row>
     <row r="912" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G912" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I912" s="9" t="s">
         <v>34</v>
@@ -16442,7 +16408,7 @@
     </row>
     <row r="913" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G913" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I913" s="9" t="s">
         <v>34</v>
@@ -16453,7 +16419,7 @@
     </row>
     <row r="914" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G914" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I914" s="9" t="s">
         <v>34</v>
@@ -16464,7 +16430,7 @@
     </row>
     <row r="915" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G915" s="9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I915" s="9" t="s">
         <v>34</v>
@@ -16475,7 +16441,7 @@
     </row>
     <row r="916" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G916" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I916" s="9" t="s">
         <v>34</v>
@@ -16486,7 +16452,7 @@
     </row>
     <row r="917" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G917" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I917" s="9" t="s">
         <v>34</v>
@@ -16497,7 +16463,7 @@
     </row>
     <row r="918" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G918" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I918" s="9" t="s">
         <v>34</v>
@@ -16508,7 +16474,7 @@
     </row>
     <row r="919" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G919" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I919" s="9" t="s">
         <v>34</v>
@@ -16519,7 +16485,7 @@
     </row>
     <row r="920" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G920" s="9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I920" s="9" t="s">
         <v>34</v>
@@ -16530,7 +16496,7 @@
     </row>
     <row r="921" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G921" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I921" s="9" t="s">
         <v>34</v>
@@ -16541,7 +16507,7 @@
     </row>
     <row r="922" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G922" s="9" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I922" s="9" t="s">
         <v>34</v>
@@ -16552,7 +16518,7 @@
     </row>
     <row r="923" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G923" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I923" s="9" t="s">
         <v>34</v>
@@ -16563,7 +16529,7 @@
     </row>
     <row r="924" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G924" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I924" s="9" t="s">
         <v>34</v>
@@ -16574,7 +16540,7 @@
     </row>
     <row r="925" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G925" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I925" s="9" t="s">
         <v>34</v>
@@ -16585,7 +16551,7 @@
     </row>
     <row r="926" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G926" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I926" s="9" t="s">
         <v>34</v>
@@ -16596,7 +16562,7 @@
     </row>
     <row r="927" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G927" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I927" s="9" t="s">
         <v>34</v>
@@ -16607,7 +16573,7 @@
     </row>
     <row r="928" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G928" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I928" s="9" t="s">
         <v>34</v>
@@ -16618,7 +16584,7 @@
     </row>
     <row r="929" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G929" s="9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I929" s="9" t="s">
         <v>34</v>
@@ -16629,7 +16595,7 @@
     </row>
     <row r="930" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G930" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I930" s="9" t="s">
         <v>34</v>
@@ -16640,7 +16606,7 @@
     </row>
     <row r="931" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G931" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I931" s="9" t="s">
         <v>34</v>
@@ -16651,7 +16617,7 @@
     </row>
     <row r="932" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G932" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I932" s="9" t="s">
         <v>34</v>
@@ -16662,7 +16628,7 @@
     </row>
     <row r="933" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G933" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I933" s="9" t="s">
         <v>34</v>
@@ -16673,7 +16639,7 @@
     </row>
     <row r="934" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G934" s="9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I934" s="9" t="s">
         <v>34</v>
@@ -16684,7 +16650,7 @@
     </row>
     <row r="935" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G935" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I935" s="9" t="s">
         <v>34</v>
@@ -16695,7 +16661,7 @@
     </row>
     <row r="936" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G936" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I936" s="9" t="s">
         <v>34</v>
@@ -16706,7 +16672,7 @@
     </row>
     <row r="937" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G937" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I937" s="9" t="s">
         <v>34</v>
@@ -16717,7 +16683,7 @@
     </row>
     <row r="938" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G938" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I938" s="9" t="s">
         <v>34</v>
@@ -16728,7 +16694,7 @@
     </row>
     <row r="939" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G939" s="9" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I939" s="9" t="s">
         <v>34</v>
@@ -16739,7 +16705,7 @@
     </row>
     <row r="940" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G940" s="9" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I940" s="9" t="s">
         <v>34</v>
@@ -16750,7 +16716,7 @@
     </row>
     <row r="941" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G941" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I941" s="9" t="s">
         <v>34</v>
@@ -16761,7 +16727,7 @@
     </row>
     <row r="942" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G942" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I942" s="9" t="s">
         <v>34</v>
@@ -16772,7 +16738,7 @@
     </row>
     <row r="943" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G943" s="9" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I943" s="9" t="s">
         <v>34</v>
@@ -16783,7 +16749,7 @@
     </row>
     <row r="944" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G944" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I944" s="9" t="s">
         <v>34</v>
@@ -16794,7 +16760,7 @@
     </row>
     <row r="945" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G945" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I945" s="9" t="s">
         <v>34</v>
@@ -16805,7 +16771,7 @@
     </row>
     <row r="946" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G946" s="9" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I946" s="9" t="s">
         <v>34</v>
@@ -16816,7 +16782,7 @@
     </row>
     <row r="947" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G947" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I947" s="9" t="s">
         <v>34</v>
@@ -16827,7 +16793,7 @@
     </row>
     <row r="948" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G948" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I948" s="9" t="s">
         <v>34</v>
@@ -16838,7 +16804,7 @@
     </row>
     <row r="949" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G949" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I949" s="9" t="s">
         <v>34</v>
@@ -16849,7 +16815,7 @@
     </row>
     <row r="950" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G950" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I950" s="9" t="s">
         <v>34</v>
@@ -16860,7 +16826,7 @@
     </row>
     <row r="951" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G951" s="9" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I951" s="9" t="s">
         <v>34</v>
@@ -16871,7 +16837,7 @@
     </row>
     <row r="952" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G952" s="9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I952" s="9" t="s">
         <v>34</v>
@@ -16882,7 +16848,7 @@
     </row>
     <row r="953" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G953" s="9" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I953" s="9" t="s">
         <v>34</v>
@@ -16893,7 +16859,7 @@
     </row>
     <row r="954" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G954" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I954" s="9" t="s">
         <v>34</v>
@@ -16904,7 +16870,7 @@
     </row>
     <row r="955" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G955" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I955" s="9" t="s">
         <v>34</v>
@@ -16915,7 +16881,7 @@
     </row>
     <row r="956" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G956" s="9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I956" s="9" t="s">
         <v>34</v>
@@ -16926,7 +16892,7 @@
     </row>
     <row r="957" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G957" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I957" s="9" t="s">
         <v>34</v>
@@ -16937,7 +16903,7 @@
     </row>
     <row r="958" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G958" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I958" s="9" t="s">
         <v>34</v>
@@ -16948,7 +16914,7 @@
     </row>
     <row r="959" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G959" s="9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I959" s="9" t="s">
         <v>34</v>
@@ -16959,7 +16925,7 @@
     </row>
     <row r="960" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G960" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I960" s="9" t="s">
         <v>34</v>
@@ -16970,7 +16936,7 @@
     </row>
     <row r="961" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G961" s="9" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I961" s="9" t="s">
         <v>34</v>
@@ -16981,7 +16947,7 @@
     </row>
     <row r="962" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G962" s="9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I962" s="9" t="s">
         <v>34</v>
@@ -16992,7 +16958,7 @@
     </row>
     <row r="963" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G963" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I963" s="9" t="s">
         <v>34</v>
@@ -17003,7 +16969,7 @@
     </row>
     <row r="964" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G964" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I964" s="9" t="s">
         <v>34</v>
@@ -17014,7 +16980,7 @@
     </row>
     <row r="965" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G965" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I965" s="9" t="s">
         <v>34</v>
@@ -17025,7 +16991,7 @@
     </row>
     <row r="966" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G966" s="9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I966" s="9" t="s">
         <v>34</v>
@@ -17036,7 +17002,7 @@
     </row>
     <row r="967" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G967" s="9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I967" s="9" t="s">
         <v>34</v>
@@ -17047,7 +17013,7 @@
     </row>
     <row r="968" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G968" s="9" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I968" s="9" t="s">
         <v>34</v>
@@ -17058,7 +17024,7 @@
     </row>
     <row r="969" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G969" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I969" s="9" t="s">
         <v>34</v>
@@ -17069,7 +17035,7 @@
     </row>
     <row r="970" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G970" s="9" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I970" s="9" t="s">
         <v>34</v>
@@ -17080,7 +17046,7 @@
     </row>
     <row r="971" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G971" s="9" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I971" s="9" t="s">
         <v>34</v>
@@ -17091,7 +17057,7 @@
     </row>
     <row r="972" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G972" s="9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I972" s="9" t="s">
         <v>34</v>
@@ -17102,7 +17068,7 @@
     </row>
     <row r="973" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G973" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I973" s="9" t="s">
         <v>34</v>
@@ -17113,7 +17079,7 @@
     </row>
     <row r="974" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G974" s="9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I974" s="9" t="s">
         <v>34</v>
@@ -17124,7 +17090,7 @@
     </row>
     <row r="975" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G975" s="9" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I975" s="9" t="s">
         <v>34</v>
@@ -17135,7 +17101,7 @@
     </row>
     <row r="976" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G976" s="9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I976" s="9" t="s">
         <v>34</v>
@@ -17146,7 +17112,7 @@
     </row>
     <row r="977" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G977" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I977" s="9" t="s">
         <v>34</v>
@@ -17157,7 +17123,7 @@
     </row>
     <row r="978" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G978" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I978" s="9" t="s">
         <v>34</v>
@@ -17168,7 +17134,7 @@
     </row>
     <row r="979" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G979" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I979" s="9" t="s">
         <v>34</v>
@@ -17179,7 +17145,7 @@
     </row>
     <row r="980" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G980" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I980" s="9" t="s">
         <v>34</v>
@@ -17190,7 +17156,7 @@
     </row>
     <row r="981" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G981" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I981" s="9" t="s">
         <v>34</v>
@@ -17201,7 +17167,7 @@
     </row>
     <row r="982" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G982" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I982" s="9" t="s">
         <v>34</v>
@@ -17212,7 +17178,7 @@
     </row>
     <row r="983" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G983" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I983" s="9" t="s">
         <v>34</v>
@@ -17223,7 +17189,7 @@
     </row>
     <row r="984" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G984" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I984" s="9" t="s">
         <v>34</v>
@@ -17234,7 +17200,7 @@
     </row>
     <row r="985" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G985" s="9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I985" s="9" t="s">
         <v>34</v>
@@ -17245,7 +17211,7 @@
     </row>
     <row r="986" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G986" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I986" s="9" t="s">
         <v>34</v>
@@ -17256,7 +17222,7 @@
     </row>
     <row r="987" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G987" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I987" s="9" t="s">
         <v>34</v>
@@ -17267,7 +17233,7 @@
     </row>
     <row r="988" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G988" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I988" s="9" t="s">
         <v>34</v>
@@ -17278,7 +17244,7 @@
     </row>
     <row r="989" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G989" s="9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I989" s="9" t="s">
         <v>34</v>
@@ -17289,7 +17255,7 @@
     </row>
     <row r="990" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G990" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I990" s="9" t="s">
         <v>34</v>
@@ -17300,7 +17266,7 @@
     </row>
     <row r="991" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G991" s="9" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I991" s="9" t="s">
         <v>34</v>
@@ -17311,7 +17277,7 @@
     </row>
     <row r="992" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G992" s="9" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I992" s="9" t="s">
         <v>34</v>
@@ -17322,7 +17288,7 @@
     </row>
     <row r="993" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G993" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I993" s="9" t="s">
         <v>34</v>
@@ -17333,7 +17299,7 @@
     </row>
     <row r="994" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G994" s="9" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I994" s="9" t="s">
         <v>34</v>
@@ -17344,7 +17310,7 @@
     </row>
     <row r="995" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G995" s="9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I995" s="9" t="s">
         <v>34</v>
@@ -17355,7 +17321,7 @@
     </row>
     <row r="996" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G996" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I996" s="9" t="s">
         <v>34</v>
@@ -17366,7 +17332,7 @@
     </row>
     <row r="997" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G997" s="9" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I997" s="9" t="s">
         <v>34</v>
@@ -17377,7 +17343,7 @@
     </row>
     <row r="998" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G998" s="9" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I998" s="9" t="s">
         <v>34</v>
@@ -17388,7 +17354,7 @@
     </row>
     <row r="999" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G999" s="9" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I999" s="9" t="s">
         <v>34</v>
@@ -17399,7 +17365,7 @@
     </row>
     <row r="1000" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1000" s="9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I1000" s="9" t="s">
         <v>34</v>
@@ -17410,7 +17376,7 @@
     </row>
     <row r="1001" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1001" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I1001" s="9" t="s">
         <v>34</v>
@@ -17421,7 +17387,7 @@
     </row>
     <row r="1002" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1002" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I1002" s="9" t="s">
         <v>34</v>
@@ -17432,7 +17398,7 @@
     </row>
     <row r="1003" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1003" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I1003" s="9" t="s">
         <v>34</v>
@@ -17443,7 +17409,7 @@
     </row>
     <row r="1004" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1004" s="9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I1004" s="9" t="s">
         <v>34</v>
@@ -17454,7 +17420,7 @@
     </row>
     <row r="1005" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1005" s="9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I1005" s="9" t="s">
         <v>34</v>
@@ -17465,7 +17431,7 @@
     </row>
     <row r="1006" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1006" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I1006" s="9" t="s">
         <v>34</v>
@@ -17476,7 +17442,7 @@
     </row>
     <row r="1007" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1007" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I1007" s="9" t="s">
         <v>34</v>
@@ -17487,7 +17453,7 @@
     </row>
     <row r="1008" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1008" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I1008" s="9" t="s">
         <v>34</v>
@@ -17498,7 +17464,7 @@
     </row>
     <row r="1009" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1009" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I1009" s="9" t="s">
         <v>34</v>
@@ -17509,7 +17475,7 @@
     </row>
     <row r="1010" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1010" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I1010" s="9" t="s">
         <v>34</v>
@@ -17520,7 +17486,7 @@
     </row>
     <row r="1011" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1011" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I1011" s="9" t="s">
         <v>34</v>
@@ -17531,7 +17497,7 @@
     </row>
     <row r="1012" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1012" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I1012" s="9" t="s">
         <v>34</v>
@@ -17542,7 +17508,7 @@
     </row>
     <row r="1013" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1013" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I1013" s="9" t="s">
         <v>34</v>
@@ -17553,7 +17519,7 @@
     </row>
     <row r="1014" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1014" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I1014" s="9" t="s">
         <v>34</v>
@@ -17564,7 +17530,7 @@
     </row>
     <row r="1015" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1015" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I1015" s="9" t="s">
         <v>34</v>
@@ -17575,7 +17541,7 @@
     </row>
     <row r="1016" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G1016" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I1016" s="9" t="s">
         <v>34</v>
@@ -17598,8 +17564,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17645,7 +17611,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>51</v>
+        <v>1092</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -17708,23 +17674,23 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -17735,7 +17701,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -17746,10 +17712,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
       </c>
       <c r="D14" s="19">
         <v>1000</v>
@@ -17757,10 +17723,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="19">
         <v>1000</v>
@@ -17768,7 +17734,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -17779,7 +17745,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -17790,7 +17756,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -17801,7 +17767,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -17812,10 +17778,10 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="19">
         <v>1000000</v>
@@ -17823,10 +17789,10 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
       </c>
       <c r="D21" s="19">
         <v>1000</v>
@@ -17834,10 +17800,10 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>77</v>
       </c>
       <c r="D22" s="19">
         <v>0.15384600000000001</v>
@@ -17845,10 +17811,10 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
         <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
       </c>
       <c r="D23" s="19">
         <v>-1E-3</v>
@@ -17856,7 +17822,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -17867,7 +17833,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -17878,7 +17844,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -17889,10 +17855,10 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="19">
         <v>2.7777769999999999</v>
@@ -17900,7 +17866,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477173E2-FACD-43DA-ADC4-95DEE30B422D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA40987-D751-488A-8D09-9FDE5F28C1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -5896,7 +5896,7 @@
   <dimension ref="B3:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J4"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5965,7 +5965,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6250,8 +6250,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:F37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:E35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6376,7 +6376,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>2222</v>
+        <v>200000</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -6390,7 +6390,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>8888</v>
+        <v>200000</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -17577,7 +17577,7 @@
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D11"/>
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833594C4-7134-4833-B773-4112D6D96D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B46A93-712B-4FDA-88B3-FA44A10DFE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5340" yWindow="-21720" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26610" windowHeight="13740" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -5954,10 +5954,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B3:K50"/>
+  <dimension ref="B3:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6094,19 +6094,19 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H50" si="0">H14+F15</f>
+        <f t="shared" ref="H15:H56" si="0">H14+F15</f>
         <v>2019</v>
       </c>
       <c r="I15">
-        <f>I14+C15</f>
+        <f t="shared" ref="I15:I27" si="1">I14+C15</f>
         <v>2019</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:K41" si="1">J14+D15</f>
+        <f t="shared" ref="J15:K41" si="2">J14+D15</f>
         <v>2019</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
     </row>
@@ -6129,15 +6129,15 @@
         <v>2020</v>
       </c>
       <c r="I16">
-        <f>I15+C16</f>
-        <v>2020</v>
-      </c>
-      <c r="J16">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
     </row>
@@ -6160,15 +6160,15 @@
         <v>2021</v>
       </c>
       <c r="I17">
-        <f>I16+C17</f>
-        <v>2021</v>
-      </c>
-      <c r="J17">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -6191,15 +6191,15 @@
         <v>2022</v>
       </c>
       <c r="I18">
-        <f>I17+C18</f>
-        <v>2022</v>
-      </c>
-      <c r="J18">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
     </row>
@@ -6222,15 +6222,15 @@
         <v>2023</v>
       </c>
       <c r="I19">
-        <f>I18+C19</f>
-        <v>2023</v>
-      </c>
-      <c r="J19">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
     </row>
@@ -6253,15 +6253,15 @@
         <v>2024</v>
       </c>
       <c r="I20">
-        <f>I19+C20</f>
-        <v>2024</v>
-      </c>
-      <c r="J20">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
     </row>
@@ -6284,15 +6284,15 @@
         <v>2025</v>
       </c>
       <c r="I21">
-        <f>I20+C21</f>
-        <v>2025</v>
-      </c>
-      <c r="J21">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
     </row>
@@ -6315,15 +6315,15 @@
         <v>2026</v>
       </c>
       <c r="I22">
-        <f>I21+C22</f>
-        <v>2026</v>
-      </c>
-      <c r="J22">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>2026</v>
+      </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
     </row>
@@ -6346,15 +6346,15 @@
         <v>2027</v>
       </c>
       <c r="I23">
-        <f>I22+C23</f>
-        <v>2027</v>
-      </c>
-      <c r="J23">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
     </row>
@@ -6376,15 +6376,15 @@
         <v>2028</v>
       </c>
       <c r="I24">
-        <f>I23+C24</f>
-        <v>2028</v>
-      </c>
-      <c r="J24">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>2028</v>
+      </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2028</v>
       </c>
     </row>
@@ -6406,15 +6406,15 @@
         <v>2029</v>
       </c>
       <c r="I25">
-        <f>I24+C25</f>
-        <v>2029</v>
-      </c>
-      <c r="J25">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>2029</v>
+      </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2029</v>
       </c>
     </row>
@@ -6436,15 +6436,15 @@
         <v>2030</v>
       </c>
       <c r="I26">
-        <f>I25+C26</f>
-        <v>2030</v>
-      </c>
-      <c r="J26">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>2030</v>
+      </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2030</v>
       </c>
     </row>
@@ -6464,15 +6464,15 @@
         <v>2031</v>
       </c>
       <c r="I27">
-        <f>I26+C27</f>
+        <f t="shared" si="1"/>
         <v>2030</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2031</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2031</v>
       </c>
     </row>
@@ -6491,11 +6491,11 @@
         <v>2032</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2032</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2032</v>
       </c>
     </row>
@@ -6514,11 +6514,11 @@
         <v>2033</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2033</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2033</v>
       </c>
     </row>
@@ -6537,11 +6537,11 @@
         <v>2034</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2034</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2034</v>
       </c>
     </row>
@@ -6560,11 +6560,11 @@
         <v>2035</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2035</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2035</v>
       </c>
     </row>
@@ -6583,11 +6583,11 @@
         <v>2036</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2036</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2036</v>
       </c>
     </row>
@@ -6606,11 +6606,11 @@
         <v>2037</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2037</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2037</v>
       </c>
     </row>
@@ -6629,11 +6629,11 @@
         <v>2038</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2038</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2038</v>
       </c>
     </row>
@@ -6652,11 +6652,11 @@
         <v>2039</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2039</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2039</v>
       </c>
     </row>
@@ -6675,11 +6675,11 @@
         <v>2040</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
     </row>
@@ -6695,11 +6695,11 @@
         <v>2041</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2041</v>
       </c>
     </row>
@@ -6715,11 +6715,11 @@
         <v>2042</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2042</v>
       </c>
     </row>
@@ -6735,11 +6735,11 @@
         <v>2043</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2043</v>
       </c>
     </row>
@@ -6755,11 +6755,11 @@
         <v>2044</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2044</v>
       </c>
     </row>
@@ -6775,7 +6775,7 @@
         <v>2045</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2045</v>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
         <v>2046</v>
       </c>
       <c r="K42">
-        <f t="shared" ref="K42:K48" si="2">K41+E42</f>
+        <f t="shared" ref="K42:K48" si="3">K41+E42</f>
         <v>2046</v>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
         <v>2047</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2047</v>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
         <v>2048</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2048</v>
       </c>
     </row>
@@ -6839,7 +6839,7 @@
         <v>2049</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2049</v>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
         <v>2050</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2050</v>
       </c>
     </row>
@@ -6868,34 +6868,85 @@
         <v>2051</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2050</v>
       </c>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.2">
       <c r="F48" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>2060</v>
+        <v>2052</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2050</v>
       </c>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F52" s="5">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F53" s="5">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F54" s="5">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
         <v>2070</v>
       </c>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="H50">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H56">
         <f t="shared" si="0"/>
         <v>2070</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B46A93-712B-4FDA-88B3-FA44A10DFE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09EC3DE-36AE-47AE-B563-8503B1B9B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26610" windowHeight="13740" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="765" windowWidth="25890" windowHeight="15435" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="1096">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -3348,6 +3348,9 @@
   </si>
   <si>
     <t>Pdef-50</t>
+  </si>
+  <si>
+    <t>Pdef-55</t>
   </si>
 </sst>
 </file>
@@ -3945,13 +3948,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>468629</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -5954,42 +5957,42 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B3:K56"/>
+  <dimension ref="B3:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
@@ -5997,8 +6000,9 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
@@ -6012,10 +6016,13 @@
         <v>1094</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>1</v>
       </c>
@@ -6031,12 +6038,11 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <f>B4</f>
-        <v>2017</v>
-      </c>
-      <c r="I13">
-        <f>$B$4</f>
         <v>2017</v>
       </c>
       <c r="J13">
@@ -6047,8 +6053,12 @@
         <f>$B$4</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f>$B$4</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="5">
         <v>1</v>
@@ -6062,24 +6072,27 @@
       <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="H14">
-        <f>H13+F14</f>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>I13+G14</f>
         <v>2018</v>
       </c>
-      <c r="I14">
-        <f>I13+C14</f>
+      <c r="J14">
+        <f>J13+C14</f>
         <v>2018</v>
       </c>
-      <c r="J14">
-        <f>J13+D14</f>
+      <c r="K14">
+        <f>K13+D14</f>
         <v>2018</v>
       </c>
-      <c r="K14">
-        <f>K13+E14</f>
+      <c r="L14">
+        <f>L13+E14</f>
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5">
         <v>1</v>
@@ -6093,24 +6106,27 @@
       <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H56" si="0">H14+F15</f>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I56" si="0">I14+G15</f>
         <v>2019</v>
       </c>
-      <c r="I15">
-        <f t="shared" ref="I15:I27" si="1">I14+C15</f>
+      <c r="J15">
+        <f t="shared" ref="J15:J27" si="1">J14+C15</f>
         <v>2019</v>
       </c>
-      <c r="J15">
-        <f t="shared" ref="J15:K41" si="2">J14+D15</f>
+      <c r="K15">
+        <f>K14+D15</f>
         <v>2019</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
+      <c r="L15">
+        <f>L14+E15</f>
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5">
         <v>1</v>
@@ -6124,24 +6140,27 @@
       <c r="F16" s="5">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
+      <c r="K16">
+        <f>K15+D16</f>
         <v>2020</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
+      <c r="L16">
+        <f>L15+E16</f>
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5">
         <v>1</v>
@@ -6155,24 +6174,27 @@
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
+      <c r="K17">
+        <f>K16+D17</f>
         <v>2021</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
+      <c r="L17">
+        <f>L16+E17</f>
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="5">
         <v>1</v>
@@ -6186,24 +6208,27 @@
       <c r="F18" s="5">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
+      <c r="K18">
+        <f>K17+D18</f>
         <v>2022</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
+      <c r="L18">
+        <f>L17+E18</f>
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5">
         <v>1</v>
@@ -6217,24 +6242,27 @@
       <c r="F19" s="5">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
+      <c r="K19">
+        <f>K18+D19</f>
         <v>2023</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
+      <c r="L19">
+        <f>L18+E19</f>
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5">
         <v>1</v>
@@ -6248,24 +6276,27 @@
       <c r="F20" s="5">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
+      <c r="K20">
+        <f>K19+D20</f>
         <v>2024</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
+      <c r="L20">
+        <f>L19+E20</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5">
         <v>1</v>
@@ -6279,24 +6310,27 @@
       <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
+      <c r="K21">
+        <f>K20+D21</f>
         <v>2025</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
+      <c r="L21">
+        <f>L20+E21</f>
         <v>2025</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5">
         <v>1</v>
@@ -6310,24 +6344,27 @@
       <c r="F22" s="5">
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
+      <c r="K22">
+        <f>K21+D22</f>
         <v>2026</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
+      <c r="L22">
+        <f>L21+E22</f>
         <v>2026</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5">
         <v>1</v>
@@ -6341,24 +6378,27 @@
       <c r="F23" s="5">
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
+      <c r="K23">
+        <f>K22+D23</f>
         <v>2027</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
+      <c r="L23">
+        <f>L22+E23</f>
         <v>2027</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C24" s="5">
         <v>1</v>
       </c>
@@ -6371,24 +6411,27 @@
       <c r="F24" s="5">
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
+      <c r="K24">
+        <f>K23+D24</f>
         <v>2028</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
+      <c r="L24">
+        <f>L23+E24</f>
         <v>2028</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C25" s="5">
         <v>1</v>
       </c>
@@ -6401,24 +6444,27 @@
       <c r="F25" s="5">
         <v>1</v>
       </c>
-      <c r="H25">
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
+      <c r="K25">
+        <f>K24+D25</f>
         <v>2029</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
+      <c r="L25">
+        <f>L24+E25</f>
         <v>2029</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C26" s="5">
         <v>1</v>
       </c>
@@ -6431,24 +6477,27 @@
       <c r="F26" s="5">
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
+      <c r="K26">
+        <f>K25+D26</f>
         <v>2030</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
+      <c r="L26">
+        <f>L25+E26</f>
         <v>2030</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="5">
         <v>1</v>
@@ -6459,24 +6508,27 @@
       <c r="F27" s="5">
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="2"/>
+      <c r="K27">
+        <f>K26+D27</f>
         <v>2031</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
+      <c r="L27">
+        <f>L26+E27</f>
         <v>2031</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D28" s="5">
         <v>1</v>
       </c>
@@ -6486,20 +6538,23 @@
       <c r="F28" s="5">
         <v>1</v>
       </c>
-      <c r="H28">
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="2"/>
+      <c r="K28">
+        <f>K27+D28</f>
         <v>2032</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
+      <c r="L28">
+        <f>L27+E28</f>
         <v>2032</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D29" s="5">
         <v>1</v>
       </c>
@@ -6509,20 +6564,23 @@
       <c r="F29" s="5">
         <v>1</v>
       </c>
-      <c r="H29">
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="2"/>
+      <c r="K29">
+        <f>K28+D29</f>
         <v>2033</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
+      <c r="L29">
+        <f>L28+E29</f>
         <v>2033</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D30" s="5">
         <v>1</v>
       </c>
@@ -6532,20 +6590,23 @@
       <c r="F30" s="5">
         <v>1</v>
       </c>
-      <c r="H30">
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
+      <c r="K30">
+        <f>K29+D30</f>
         <v>2034</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="2"/>
+      <c r="L30">
+        <f>L29+E30</f>
         <v>2034</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D31" s="5">
         <v>1</v>
       </c>
@@ -6555,20 +6616,23 @@
       <c r="F31" s="5">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="2"/>
+      <c r="K31">
+        <f>K30+D31</f>
         <v>2035</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
+      <c r="L31">
+        <f>L30+E31</f>
         <v>2035</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D32" s="5">
         <v>1</v>
       </c>
@@ -6578,20 +6642,23 @@
       <c r="F32" s="5">
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
+      <c r="K32">
+        <f>K31+D32</f>
         <v>2036</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="2"/>
+      <c r="L32">
+        <f>L31+E32</f>
         <v>2036</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D33" s="5">
         <v>1</v>
       </c>
@@ -6601,20 +6668,23 @@
       <c r="F33" s="5">
         <v>1</v>
       </c>
-      <c r="H33">
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
+      <c r="K33">
+        <f>K32+D33</f>
         <v>2037</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="2"/>
+      <c r="L33">
+        <f>L32+E33</f>
         <v>2037</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D34" s="5">
         <v>1</v>
       </c>
@@ -6624,20 +6694,23 @@
       <c r="F34" s="5">
         <v>1</v>
       </c>
-      <c r="H34">
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="2"/>
+      <c r="K34">
+        <f>K33+D34</f>
         <v>2038</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="2"/>
+      <c r="L34">
+        <f>L33+E34</f>
         <v>2038</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D35" s="5">
         <v>1</v>
       </c>
@@ -6647,20 +6720,23 @@
       <c r="F35" s="5">
         <v>1</v>
       </c>
-      <c r="H35">
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="2"/>
+      <c r="K35">
+        <f>K34+D35</f>
         <v>2039</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="2"/>
+      <c r="L35">
+        <f>L34+E35</f>
         <v>2039</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D36" s="5">
         <v>1</v>
       </c>
@@ -6670,283 +6746,331 @@
       <c r="F36" s="5">
         <v>1</v>
       </c>
-      <c r="H36">
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="2"/>
+      <c r="K36">
+        <f>K35+D36</f>
         <v>2040</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
+      <c r="L36">
+        <f>L35+E36</f>
         <v>2040</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E37" s="5">
         <v>1</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
       </c>
-      <c r="H37">
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="2"/>
+      <c r="K37">
+        <f>K36+D37</f>
         <v>2040</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
+      <c r="L37">
+        <f>L36+E37</f>
         <v>2041</v>
       </c>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E38" s="5">
         <v>1</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
       </c>
-      <c r="H38">
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="2"/>
+      <c r="K38">
+        <f>K37+D38</f>
         <v>2040</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
+      <c r="L38">
+        <f>L37+E38</f>
         <v>2042</v>
       </c>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E39" s="5">
         <v>1</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
       </c>
-      <c r="H39">
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="2"/>
+      <c r="K39">
+        <f>K38+D39</f>
         <v>2040</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="2"/>
+      <c r="L39">
+        <f>L38+E39</f>
         <v>2043</v>
       </c>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E40" s="5">
         <v>1</v>
       </c>
       <c r="F40" s="5">
         <v>1</v>
       </c>
-      <c r="H40">
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="0"/>
         <v>2044</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="2"/>
+      <c r="K40">
+        <f>K39+D40</f>
         <v>2040</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="2"/>
+      <c r="L40">
+        <f>L39+E40</f>
         <v>2044</v>
       </c>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E41" s="5">
         <v>1</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
       </c>
-      <c r="H41">
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="0"/>
         <v>2045</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="2"/>
+      <c r="L41">
+        <f>L40+E41</f>
         <v>2045</v>
       </c>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E42" s="5">
         <v>1</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
       </c>
-      <c r="H42">
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="0"/>
         <v>2046</v>
       </c>
-      <c r="K42">
-        <f t="shared" ref="K42:K48" si="3">K41+E42</f>
+      <c r="L42">
+        <f t="shared" ref="L42:L48" si="2">L41+E42</f>
         <v>2046</v>
       </c>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E43" s="5">
         <v>1</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
       </c>
-      <c r="H43">
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="0"/>
         <v>2047</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="3"/>
+      <c r="L43">
+        <f t="shared" si="2"/>
         <v>2047</v>
       </c>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E44" s="5">
         <v>1</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
       </c>
-      <c r="H44">
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="3"/>
+      <c r="L44">
+        <f t="shared" si="2"/>
         <v>2048</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E45" s="5">
         <v>1</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
       </c>
-      <c r="H45">
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="3"/>
+      <c r="L45">
+        <f t="shared" si="2"/>
         <v>2049</v>
       </c>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E46" s="5">
         <v>1</v>
       </c>
       <c r="F46" s="5">
         <v>1</v>
       </c>
-      <c r="H46">
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
-      <c r="K46">
-        <f t="shared" si="3"/>
+      <c r="L46">
+        <f t="shared" si="2"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F47" s="5">
         <v>1</v>
       </c>
-      <c r="H47">
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="0"/>
         <v>2051</v>
       </c>
-      <c r="K47">
-        <f t="shared" si="3"/>
+      <c r="L47">
+        <f t="shared" si="2"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F48" s="5">
         <v>1</v>
       </c>
-      <c r="H48">
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="0"/>
         <v>2052</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="3"/>
+      <c r="L48">
+        <f t="shared" si="2"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F49" s="5">
         <v>1</v>
       </c>
-      <c r="H49">
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="0"/>
         <v>2053</v>
       </c>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F50" s="5">
         <v>1</v>
       </c>
-      <c r="H50">
+      <c r="G50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="0"/>
         <v>2054</v>
       </c>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F51" s="5">
         <v>1</v>
       </c>
-      <c r="H51">
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="0"/>
         <v>2055</v>
       </c>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F52" s="5">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G52" s="5">
         <v>5</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <f t="shared" si="0"/>
         <v>2060</v>
       </c>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F53" s="5">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G53" s="5">
         <v>5</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <f t="shared" si="0"/>
         <v>2065</v>
       </c>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F54" s="5">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G54" s="5">
         <v>5</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <f t="shared" si="0"/>
         <v>2070</v>
       </c>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="H55">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I55">
         <f t="shared" si="0"/>
         <v>2070</v>
       </c>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="H56">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I56">
         <f t="shared" si="0"/>
         <v>2070</v>
       </c>
